--- a/kai-warband.xlsx
+++ b/kai-warband.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaute\Dropbox\Privat\Mordheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82CE67D8-D579-4E16-8497-810014F632EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{443CD8A0-B509-4A98-80CD-A728174AE88A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
   <si>
     <t>gold</t>
   </si>
@@ -318,9 +318,6 @@
     <t>user+1</t>
   </si>
   <si>
-    <t>Heavy, Difficult to Use</t>
-  </si>
-  <si>
     <t>Two-Handed</t>
   </si>
   <si>
@@ -402,12 +399,6 @@
     <t>€ genutzt/Packung</t>
   </si>
   <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>user+1 (1st turn per h-t-h cc)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mad Cap Mushroom </t>
   </si>
   <si>
@@ -433,6 +424,27 @@
   </si>
   <si>
     <t>Prozentuale Nutzung</t>
+  </si>
+  <si>
+    <t>ork boys</t>
+  </si>
+  <si>
+    <t>Wunsch</t>
+  </si>
+  <si>
+    <t>Zusatzkosten</t>
+  </si>
+  <si>
+    <t>wunsch</t>
+  </si>
+  <si>
+    <t>zusatzkosten</t>
+  </si>
+  <si>
+    <t>v1.3</t>
+  </si>
+  <si>
+    <t>Heavy, Difficult to Use, S+1 (1st turn per h-t-h cc)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -493,8 +505,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,7 +633,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -609,43 +640,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="45">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -680,15 +766,54 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="double">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -713,14 +838,14 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="double">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -745,14 +870,78 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -795,154 +984,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -957,20 +998,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE917802-B44D-499F-9629-F449A9717EB8}" name="Tabelle2" displayName="Tabelle2" ref="B22:I40" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26">
-  <autoFilter ref="B22:I40" xr:uid="{44A6AEBB-554F-4429-9958-59CC72347D72}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE917802-B44D-499F-9629-F449A9717EB8}" name="Tabelle2" displayName="Tabelle2" ref="B22:K40" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
+  <autoFilter ref="B22:K40" xr:uid="{44A6AEBB-554F-4429-9958-59CC72347D72}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C3F7CADD-1D9B-485D-A98F-A461132198D8}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{E1B629AA-5934-496E-AE67-61F0057A8E61}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{48A7FC81-357E-4698-9EC6-7293C8B7F0AB}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{7911AAC7-DEDA-4F77-975E-065359528994}" name="S"/>
+    <tableColumn id="4" xr3:uid="{7911AAC7-DEDA-4F77-975E-065359528994}" name="S" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{F112F27E-2831-4F67-B715-59D2957BBD71}" name="SP"/>
     <tableColumn id="6" xr3:uid="{BE0B4CE5-22FF-4815-9117-19EF8B707F9B}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{E1FB3943-AA28-4F2A-96CB-CB370CF8456C}" name="anzahl">
-      <calculatedColumnFormula>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{E1FB3943-AA28-4F2A-96CB-CB370CF8456C}" name="anzahl" dataDxfId="18">
+      <calculatedColumnFormula>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70+Weapons!I92</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D5BC51F7-A5CF-4986-B4E0-209C1AB4E6E7}" name="kosten">
       <calculatedColumnFormula>H23*G23</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E02889F0-3F2E-4F11-8634-A762B38917F6}" name="wunsch" dataDxfId="12">
+      <calculatedColumnFormula>Weapons!K4+Weapons!K26+Weapons!K48+Weapons!K70+Weapons!K92</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{528F5479-4A41-4195-B8BB-079A00225EF9}" name="zusatzkosten" dataDxfId="11">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -978,18 +1025,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0072B454-E953-427D-821E-0D80E7563EFB}" name="Tabelle210" displayName="Tabelle210" ref="C3:J21" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="C3:J21" xr:uid="{AFEABBA7-91D9-46A8-A6D9-78F14A02B2E7}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0072B454-E953-427D-821E-0D80E7563EFB}" name="Tabelle210" displayName="Tabelle210" ref="C3:L21" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="C3:L21" xr:uid="{AFEABBA7-91D9-46A8-A6D9-78F14A02B2E7}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F5EB73A5-5414-45EE-8BA8-02A697C62F24}" name="boss"/>
     <tableColumn id="2" xr3:uid="{6FFF486D-74DF-452E-B7FA-2D6515DA4D53}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{110D57DA-CEA1-48E5-9F87-FDF024F729E9}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{4927F1BC-A5CE-4DD4-8D4B-32683EC16EF4}" name="S"/>
-    <tableColumn id="5" xr3:uid="{B29E183E-80EA-44EC-A977-492A910D1305}" name="SP"/>
+    <tableColumn id="4" xr3:uid="{4927F1BC-A5CE-4DD4-8D4B-32683EC16EF4}" name="S" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B29E183E-80EA-44EC-A977-492A910D1305}" name="SP" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{A20EE973-5D6C-4DC5-9358-034AF2068E16}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{E64F7803-1FD3-47FB-9C51-EB57F45F7149}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{2C948D2C-95CE-4610-ADE8-330CD584829A}" name="kosten">
       <calculatedColumnFormula>I4*H4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{AF07A97A-65C7-4E66-9941-3750C79F193A}" name="Wunsch"/>
+    <tableColumn id="10" xr3:uid="{2528C578-34DB-4E17-8F16-8799C7462AC2}" name="Zusatzkosten" dataDxfId="17">
+      <calculatedColumnFormula>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -997,18 +1048,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AA034179-7FCF-4AE7-A8C7-00A34D37A4D8}" name="Tabelle21011" displayName="Tabelle21011" ref="C25:J43" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="C25:J43" xr:uid="{E5A65A45-A340-4682-8EF3-211FAAD8669A}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AA034179-7FCF-4AE7-A8C7-00A34D37A4D8}" name="Tabelle21011" displayName="Tabelle21011" ref="C25:L43" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="C25:L43" xr:uid="{E5A65A45-A340-4682-8EF3-211FAAD8669A}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A53CC773-0203-4F5C-B7EC-780905AFA8F1}" name="schamane"/>
     <tableColumn id="2" xr3:uid="{5EA295C1-9847-43CC-B040-AFE69F1366F7}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{60893CED-C72D-432E-B4E5-D3B179621D44}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{EC17262E-2D9D-42B2-A907-D895AE1CF8F2}" name="S"/>
-    <tableColumn id="5" xr3:uid="{64CA7C31-C328-42AA-940A-17CAFEEF2730}" name="SP"/>
+    <tableColumn id="4" xr3:uid="{EC17262E-2D9D-42B2-A907-D895AE1CF8F2}" name="S" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{64CA7C31-C328-42AA-940A-17CAFEEF2730}" name="SP" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{2BE03827-E168-424C-8C1B-6CAEC6E86593}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{ABF3F9DC-586E-49A9-A5C5-3FA93561388A}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{29765055-B208-4735-8801-0FCC51160A82}" name="kosten">
       <calculatedColumnFormula>I26*H26</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{16B28F51-570E-4D1B-9258-CE9DF7FF5401}" name="Wunsch"/>
+    <tableColumn id="10" xr3:uid="{BE5F560F-BE61-40EE-ADE1-992D61D9445C}" name="Zusatzkosten" dataDxfId="16">
+      <calculatedColumnFormula>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1016,18 +1071,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4E492FB1-9556-429A-8F67-4B6950C5B294}" name="Tabelle21012" displayName="Tabelle21012" ref="C47:J65" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="C47:J65" xr:uid="{BA77243D-D832-49A7-A71B-DA40B06A6907}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4E492FB1-9556-429A-8F67-4B6950C5B294}" name="Tabelle21012" displayName="Tabelle21012" ref="C47:L65" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="C47:L65" xr:uid="{BA77243D-D832-49A7-A71B-DA40B06A6907}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{96C0524C-6310-4C91-8F84-0D1F9E816C7E}" name="big'uns"/>
     <tableColumn id="2" xr3:uid="{5E8FDC86-4004-4B76-A01D-079DDD0617B2}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{10021E3A-D404-47D3-A9C7-0889FF619D6A}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{F9F543EF-381D-4911-95FB-0EB0564D81ED}" name="S"/>
-    <tableColumn id="5" xr3:uid="{AA0EE3E2-0A80-42E8-9D16-BC067EAF89EC}" name="SP"/>
+    <tableColumn id="4" xr3:uid="{F9F543EF-381D-4911-95FB-0EB0564D81ED}" name="S" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{AA0EE3E2-0A80-42E8-9D16-BC067EAF89EC}" name="SP" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{BDB34D96-3F1E-4B02-8AA5-E6F9EF3BFF9A}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{69AB72E5-4520-4F0D-804A-9B06114A85C3}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{C6BDC6F1-6063-4E78-9C93-5F1C80ED5410}" name="kosten">
       <calculatedColumnFormula>I48*H48</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{71C53FC7-F471-46B9-B790-25A9A2D1BF17}" name="Wunsch"/>
+    <tableColumn id="10" xr3:uid="{15380590-715A-4F9E-BEF1-500BB6F92367}" name="Zusatzkosten" dataDxfId="15">
+      <calculatedColumnFormula>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1035,18 +1094,22 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6CAD1756-2EE5-4B8E-BD8B-BFCB45F5CEAF}" name="Tabelle2101213" displayName="Tabelle2101213" ref="C69:J87" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
-  <autoFilter ref="C69:J87" xr:uid="{F5993C53-11DE-449B-AEBF-053143094B0D}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6CAD1756-2EE5-4B8E-BD8B-BFCB45F5CEAF}" name="Tabelle2101213" displayName="Tabelle2101213" ref="C69:L87" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="C69:L87" xr:uid="{F5993C53-11DE-449B-AEBF-053143094B0D}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0296A0F8-9319-4411-AC1A-07BB35E300D2}" name="goblins"/>
     <tableColumn id="2" xr3:uid="{4A108C9A-16A4-4542-BE17-0F2998E44B58}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{2C984FF7-A56A-4F4B-A977-10A461999CDF}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{ED5BA748-B650-4BEB-A7C8-825104B3F7DA}" name="S"/>
-    <tableColumn id="5" xr3:uid="{31E0E70E-EEAE-4678-AB6C-C3336C905C2C}" name="SP"/>
+    <tableColumn id="4" xr3:uid="{ED5BA748-B650-4BEB-A7C8-825104B3F7DA}" name="S" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{31E0E70E-EEAE-4678-AB6C-C3336C905C2C}" name="SP" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{BF88A6AA-DA83-410A-9B46-99F116A7CD84}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{52ECD462-D386-4835-9FF2-9FF785A29353}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{1CD894EA-A36E-4F51-9383-4D493C603B9A}" name="kosten">
       <calculatedColumnFormula>I70*H70</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E1E008CD-8DF0-4674-ABDE-4ADF1D7E21C3}" name="Wunsch"/>
+    <tableColumn id="10" xr3:uid="{34EE0F17-D57F-4584-B6D0-B04FB701A58E}" name="Zusatzkosten" dataDxfId="14">
+      <calculatedColumnFormula>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1054,18 +1117,41 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58E16604-D8D1-4C69-B280-F570770AF240}" name="Tabelle4" displayName="Tabelle4" ref="B3:H17" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00E6619C-4B57-485A-B3C1-11BDB271F765}" name="Tabelle21012132" displayName="Tabelle21012132" ref="C91:L109" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+  <autoFilter ref="C91:L109" xr:uid="{7DD288ED-E26C-414B-A1C1-70E7BF7A265D}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B2C60899-7903-454D-8BC5-7F908BD04844}" name="ork boys"/>
+    <tableColumn id="2" xr3:uid="{A659A21A-71C6-40D3-9581-3D92BA87EA19}" name="Typ"/>
+    <tableColumn id="3" xr3:uid="{ADB9CA0D-EBB2-432A-90B3-90C775931159}" name="Range"/>
+    <tableColumn id="4" xr3:uid="{D86CE352-65C9-407F-B14A-11F8422DD9E6}" name="S" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{BF8C4025-64F5-4EF4-8715-07BC96B1B2F6}" name="SP" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F8B1C7A8-0F0D-446A-A0FC-09DE917E1F3C}" name="gold/stück"/>
+    <tableColumn id="7" xr3:uid="{10184BF8-42E5-4994-BAFE-BD22F39BE94E}" name="anzahl"/>
+    <tableColumn id="8" xr3:uid="{1F7605EE-E3D1-4C54-8F48-1D735E2541EB}" name="kosten">
+      <calculatedColumnFormula>I92*H92</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{FB195855-A1F2-4683-9281-91D2AA216753}" name="Wunsch"/>
+    <tableColumn id="10" xr3:uid="{76A786FC-42BD-4821-B492-0881AE5B21EC}" name="Zusatzkosten" dataDxfId="13">
+      <calculatedColumnFormula>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58E16604-D8D1-4C69-B280-F570770AF240}" name="Tabelle4" displayName="Tabelle4" ref="B3:H17" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B3:H17" xr:uid="{30593F58-FB8B-4941-8604-A0FBCEF09A91}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{320E3AE4-66E9-4E58-AE33-840E6BEC4162}" name="Mögliche einheiten" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{1E1E82CF-332B-447C-85E2-C5C032920B8B}" name="€/Packung" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{320E3AE4-66E9-4E58-AE33-840E6BEC4162}" name="Mögliche einheiten" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1E1E82CF-332B-447C-85E2-C5C032920B8B}" name="€/Packung" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{8376770F-A2D7-4268-A7F3-BC48CC588BF8}" name="Ausrüstung"/>
-    <tableColumn id="4" xr3:uid="{804B05B3-5F01-4C54-A035-85A7C16ED018}" name="€/Figur" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{804B05B3-5F01-4C54-A035-85A7C16ED018}" name="€/Figur" dataDxfId="24"/>
     <tableColumn id="5" xr3:uid="{DFB46912-9C74-4E20-93C8-CCFB57123305}" name="Genutzte figuren"/>
-    <tableColumn id="6" xr3:uid="{F29DEE1E-ED49-44B7-8D41-83BE77CE9F69}" name="€ genutzt/Packung" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{F29DEE1E-ED49-44B7-8D41-83BE77CE9F69}" name="€ genutzt/Packung" dataDxfId="23">
       <calculatedColumnFormula>F4*E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1FBCF302-A365-4A98-9AA1-B20E5B18E736}" name="Prozentuale Nutzung" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{1FBCF302-A365-4A98-9AA1-B20E5B18E736}" name="Prozentuale Nutzung" dataDxfId="22">
       <calculatedColumnFormula>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1338,65 +1424,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W118"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24">
-        <v>43332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="10">
         <f>5*SUM(D12:D18)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*E18</f>
         <v>140</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1404,27 +1492,27 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4">
         <f>F19+Member!I41</f>
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B7">
         <f>B5-B6</f>
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1435,175 +1523,175 @@
         <v>23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>68</v>
       </c>
       <c r="C12">
         <v>80</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="34">
         <v>20</v>
       </c>
       <c r="F12">
-        <f>D12*C12</f>
+        <f t="shared" ref="F12:F18" si="0">D12*C12</f>
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="34">
         <v>10</v>
       </c>
       <c r="F13">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="34">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="34">
         <v>15</v>
       </c>
       <c r="F14">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
         <v>0</v>
       </c>
       <c r="F15">
-        <f>D15*C15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="34">
+        <v>3</v>
+      </c>
+      <c r="E16" s="34">
         <v>0</v>
       </c>
       <c r="F16">
-        <f>D16*C16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="34">
         <v>5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="34">
         <v>0</v>
       </c>
       <c r="F17">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5">
         <v>200</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f>D18*C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
         <v>13</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -1615,8 +1703,14 @@
       <c r="I22" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>12</v>
@@ -1624,22 +1718,31 @@
       <c r="C23" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="E23" s="36"/>
       <c r="F23" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <f>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70</f>
+        <f>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70+Weapons!I92</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>H23*G23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I23:I40" si="1">H23*G23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <f>Weapons!K4+Weapons!K26+Weapons!K48+Weapons!K70+Weapons!K92</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>1</v>
@@ -1647,22 +1750,31 @@
       <c r="C24" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="E24" s="36"/>
       <c r="F24" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" s="6">
-        <f>Weapons!I5+Weapons!I27+Weapons!I49+Weapons!I71</f>
-        <v>0</v>
+        <f>Weapons!I5+Weapons!I27+Weapons!I49+Weapons!I71+Weapons!I93</f>
+        <v>6</v>
       </c>
       <c r="I24">
-        <f>H24*G24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J24" s="6">
+        <f>Weapons!K5+Weapons!K27+Weapons!K49+Weapons!K71+Weapons!K93</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>2</v>
@@ -1670,25 +1782,33 @@
       <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>125</v>
+      <c r="E25" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G25">
         <v>15</v>
       </c>
       <c r="H25" s="6">
-        <f>Weapons!I6+Weapons!I28+Weapons!I50+Weapons!I72</f>
+        <f>Weapons!I6+Weapons!I28+Weapons!I50+Weapons!I72+Weapons!I94</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>H25*G25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <f>Weapons!K6+Weapons!K28+Weapons!K50+Weapons!K72+Weapons!K94</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>3</v>
@@ -1696,25 +1816,33 @@
       <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="36" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="H26" s="6">
-        <f>Weapons!I7+Weapons!I29+Weapons!I51+Weapons!I73</f>
-        <v>2</v>
+        <f>Weapons!I7+Weapons!I29+Weapons!I51+Weapons!I73+Weapons!I95</f>
+        <v>1</v>
       </c>
       <c r="I26">
-        <f>H26*G26</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="6">
+        <f>Weapons!K7+Weapons!K29+Weapons!K51+Weapons!K73+Weapons!K95</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>4</v>
@@ -1722,25 +1850,33 @@
       <c r="C27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" s="6">
-        <f>Weapons!I8+Weapons!I30+Weapons!I52+Weapons!I74</f>
-        <v>2</v>
+        <f>Weapons!I8+Weapons!I30+Weapons!I52+Weapons!I74+Weapons!I96</f>
+        <v>1</v>
       </c>
       <c r="I27">
-        <f>H27*G27</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="6">
+        <f>Weapons!K8+Weapons!K30+Weapons!K52+Weapons!K74+Weapons!K96</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>5</v>
@@ -1748,25 +1884,33 @@
       <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="36" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" s="6">
-        <f>Weapons!I9+Weapons!I31+Weapons!I53+Weapons!I75</f>
+        <f>Weapons!I9+Weapons!I31+Weapons!I53+Weapons!I75+Weapons!I97</f>
         <v>1</v>
       </c>
       <c r="I28">
-        <f>H28*G28</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="6">
+        <f>Weapons!K9+Weapons!K31+Weapons!K53+Weapons!K75+Weapons!K97</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>6</v>
@@ -1774,19 +1918,28 @@
       <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="E29" s="36"/>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" s="6">
-        <f>Weapons!I10+Weapons!I32+Weapons!I54+Weapons!I76</f>
+        <f>Weapons!I10+Weapons!I32+Weapons!I54+Weapons!I76+Weapons!I98</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>H29*G29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <f>Weapons!K10+Weapons!K32+Weapons!K54+Weapons!K76+Weapons!K98</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>7</v>
@@ -1797,7 +1950,7 @@
       <c r="D30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="36">
         <v>4</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -1807,15 +1960,23 @@
         <v>25</v>
       </c>
       <c r="H30" s="6">
-        <f>Weapons!I11+Weapons!I33+Weapons!I55+Weapons!I77</f>
+        <f>Weapons!I11+Weapons!I33+Weapons!I55+Weapons!I77+Weapons!I99</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>H30*G30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f>Weapons!K11+Weapons!K33+Weapons!K55+Weapons!K77+Weapons!K99</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>8</v>
@@ -1826,24 +1987,32 @@
       <c r="D31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="36">
         <v>3</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" s="6">
-        <f>Weapons!I12+Weapons!I34+Weapons!I56+Weapons!I78</f>
+        <f>Weapons!I12+Weapons!I34+Weapons!I56+Weapons!I78+Weapons!I100</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>H31*G31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <f>Weapons!K12+Weapons!K34+Weapons!K56+Weapons!K78+Weapons!K100</f>
+        <v>5</v>
+      </c>
+      <c r="K31" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -1851,19 +2020,28 @@
       <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="E32" s="36"/>
       <c r="G32">
         <v>5</v>
       </c>
       <c r="H32" s="6">
-        <f>Weapons!I13+Weapons!I35+Weapons!I57+Weapons!I79</f>
+        <f>Weapons!I13+Weapons!I35+Weapons!I57+Weapons!I79+Weapons!I101</f>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>H32*G32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <f>Weapons!K13+Weapons!K35+Weapons!K57+Weapons!K79+Weapons!K101</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" t="s">
         <v>14</v>
@@ -1871,7 +2049,7 @@
       <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="36" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -1881,15 +2059,23 @@
         <v>5</v>
       </c>
       <c r="H33" s="6">
-        <f>Weapons!I14+Weapons!I36+Weapons!I58+Weapons!I80</f>
+        <f>Weapons!I14+Weapons!I36+Weapons!I58+Weapons!I80+Weapons!I102</f>
         <v>3</v>
       </c>
       <c r="I33">
-        <f>H33*G33</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="6">
+        <f>Weapons!K14+Weapons!K36+Weapons!K58+Weapons!K80+Weapons!K102</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" t="s">
         <v>15</v>
@@ -1900,22 +2086,30 @@
       <c r="D34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="36">
         <v>3</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" s="6">
-        <f>Weapons!I15+Weapons!I37+Weapons!I59+Weapons!I81</f>
+        <f>Weapons!I15+Weapons!I37+Weapons!I59+Weapons!I81+Weapons!I103</f>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>H34*G34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <f>Weapons!K15+Weapons!K37+Weapons!K59+Weapons!K81+Weapons!K103</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>16</v>
@@ -1924,21 +2118,30 @@
         <v>71</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E35" s="36"/>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35" s="6">
-        <f>Weapons!I16+Weapons!I38+Weapons!I60+Weapons!I82</f>
+        <f>Weapons!I16+Weapons!I38+Weapons!I60+Weapons!I82+Weapons!I104</f>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>H35*G35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <f>Weapons!K16+Weapons!K38+Weapons!K60+Weapons!K82+Weapons!K104</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" t="s">
         <v>17</v>
@@ -1946,48 +2149,64 @@
       <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>100</v>
+      <c r="E36" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36">
         <v>15</v>
       </c>
       <c r="H36" s="6">
-        <f>Weapons!I17+Weapons!I39+Weapons!I61+Weapons!I83</f>
+        <f>Weapons!I17+Weapons!I39+Weapons!I61+Weapons!I83+Weapons!I105</f>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>H36*G36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <f>Weapons!K17+Weapons!K39+Weapons!K61+Weapons!K83+Weapons!K105</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18">
         <v>25</v>
       </c>
       <c r="H37" s="6">
-        <f>Weapons!I18+Weapons!I40+Weapons!I62+Weapons!I84</f>
+        <f>Weapons!I18+Weapons!I40+Weapons!I62+Weapons!I84+Weapons!I106</f>
         <v>0</v>
       </c>
       <c r="I37" s="18">
-        <f>H37*G37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <f>Weapons!K18+Weapons!K40+Weapons!K62+Weapons!K84+Weapons!K106</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" t="s">
         <v>9</v>
@@ -1995,22 +2214,31 @@
       <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="E38" s="36"/>
       <c r="F38" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38">
         <v>20</v>
       </c>
       <c r="H38" s="6">
-        <f>Weapons!I19+Weapons!I41+Weapons!I63+Weapons!I85</f>
-        <v>1</v>
+        <f>Weapons!I19+Weapons!I41+Weapons!I63+Weapons!I85+Weapons!I107</f>
+        <v>0</v>
       </c>
       <c r="I38">
-        <f>H38*G38</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <f>Weapons!K19+Weapons!K41+Weapons!K63+Weapons!K85+Weapons!K107</f>
+        <v>4</v>
+      </c>
+      <c r="K38" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>11</v>
@@ -2019,23 +2247,31 @@
         <v>85</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" s="6">
-        <f>Weapons!I20+Weapons!I42+Weapons!I64+Weapons!I86</f>
-        <v>4</v>
+        <f>Weapons!I20+Weapons!I42+Weapons!I64+Weapons!I86+Weapons!I108</f>
+        <v>1</v>
       </c>
       <c r="I39">
-        <f>H39*G39</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J39" s="6">
+        <f>Weapons!K20+Weapons!K42+Weapons!K64+Weapons!K86+Weapons!K108</f>
+        <v>3</v>
+      </c>
+      <c r="K39" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="18" t="s">
         <v>10</v>
@@ -2044,121 +2280,133 @@
         <v>85</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18">
         <v>10</v>
       </c>
       <c r="H40" s="6">
-        <f>Weapons!I21+Weapons!I43+Weapons!I65+Weapons!I87</f>
+        <f>Weapons!I21+Weapons!I43+Weapons!I65+Weapons!I87+Weapons!I109</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J40" s="6">
+        <f>Weapons!K21+Weapons!K43+Weapons!K65+Weapons!K87+Weapons!K109</f>
         <v>3</v>
       </c>
-      <c r="I40" s="18">
-        <f>H40*G40</f>
+      <c r="K40" s="6">
+        <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="G41"/>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I41" s="2">
         <f>SUM(I23:I40)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="K41" s="32">
+        <f>SUM(Tabelle2[zusatzkosten])</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:A37"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2256,46 +2504,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF03C1C-15F7-4E06-B3B6-3B6DA9E751F9}">
-  <dimension ref="B2:S88"/>
+  <dimension ref="B2:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="38" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="12" t="s">
@@ -2307,8 +2557,14 @@
       <c r="J3" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -2317,9 +2573,8 @@
         <v>84</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19" t="s">
-        <v>98</v>
+      <c r="G4" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -2328,11 +2583,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <f>I4*H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J4:J21" si="0">I4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -2341,9 +2600,8 @@
         <v>84</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>102</v>
+      <c r="G5" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="H5" s="6">
         <v>5</v>
@@ -2352,11 +2610,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <f>I5*H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -2365,11 +2627,11 @@
         <v>84</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>96</v>
+      <c r="F6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="H6" s="6">
         <v>15</v>
@@ -2378,11 +2640,15 @@
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <f>I6*H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>3</v>
@@ -2391,11 +2657,11 @@
         <v>84</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>99</v>
+      <c r="G7" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="H7" s="6">
         <v>10</v>
@@ -2404,11 +2670,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <f>I7*H7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -2417,11 +2687,11 @@
         <v>84</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H8" s="6">
         <v>10</v>
@@ -2430,11 +2700,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <f>I8*H8</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
         <v>5</v>
@@ -2443,11 +2717,11 @@
         <v>84</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>97</v>
+      <c r="G9" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="H9" s="6">
         <v>10</v>
@@ -2456,11 +2730,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <f>I9*H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2469,8 +2747,6 @@
         <v>86</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
       <c r="H10" s="6">
         <v>3</v>
       </c>
@@ -2478,11 +2754,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <f>I10*H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>7</v>
@@ -2493,10 +2773,10 @@
       <c r="E11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="36">
         <v>4</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="36" t="s">
         <v>89</v>
       </c>
       <c r="H11" s="6">
@@ -2506,11 +2786,18 @@
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <f>I11*H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2521,10 +2808,9 @@
       <c r="E12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="36">
         <v>3</v>
       </c>
-      <c r="G12" s="6"/>
       <c r="H12" s="6">
         <v>10</v>
       </c>
@@ -2532,13 +2818,17 @@
         <v>0</v>
       </c>
       <c r="J12" s="6">
-        <f>I12*H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
@@ -2546,6 +2836,8 @@
       <c r="D13" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="6">
         <v>5</v>
       </c>
@@ -2553,11 +2845,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="6">
-        <f>I13*H13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
         <v>14</v>
@@ -2565,10 +2861,10 @@
       <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="36" t="s">
         <v>94</v>
       </c>
       <c r="H14" s="6">
@@ -2578,11 +2874,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <f>I14*H14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -2593,9 +2893,10 @@
       <c r="E15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="36">
         <v>3</v>
       </c>
+      <c r="G15" s="36"/>
       <c r="H15" s="6">
         <v>5</v>
       </c>
@@ -2603,11 +2904,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="6">
-        <f>I15*H15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="C16" s="6" t="s">
         <v>16</v>
@@ -2616,8 +2921,10 @@
         <v>71</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="6">
         <v>15</v>
       </c>
@@ -2625,11 +2932,15 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f>I16*H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -2637,11 +2948,11 @@
       <c r="D17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
+      <c r="F17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="H17" s="6">
         <v>15</v>
@@ -2650,21 +2961,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f>I17*H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="30"/>
       <c r="C18" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="18">
         <v>25</v>
       </c>
@@ -2672,11 +2987,15 @@
         <v>0</v>
       </c>
       <c r="J18" s="18">
-        <f>I18*H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>9</v>
@@ -2685,23 +3004,28 @@
         <v>85</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>105</v>
+      <c r="G19" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="H19" s="6">
         <v>20</v>
       </c>
       <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="J19" s="6">
-        <f>I19*H19</f>
+      <c r="L19">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>20</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>11</v>
@@ -2710,9 +3034,9 @@
         <v>85</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
-        <v>104</v>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H20" s="6">
         <v>5</v>
@@ -2721,12 +3045,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f>I20*H20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="18" t="s">
         <v>10</v>
@@ -2735,8 +3063,8 @@
         <v>85</v>
       </c>
       <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="18">
         <v>10</v>
       </c>
@@ -2744,28 +3072,33 @@
         <v>1</v>
       </c>
       <c r="J21" s="18">
-        <f>I21*H21</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="2">
         <f>SUM(J4:J21)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="32">
+        <f>SUM(Tabelle210[Zusatzkosten])</f>
+        <v>45</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2774,43 +3107,39 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="38" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -2822,8 +3151,14 @@
       <c r="J25" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="K25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
         <v>12</v>
@@ -2832,9 +3167,8 @@
         <v>84</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="19" t="s">
-        <v>98</v>
+      <c r="G26" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="H26" s="6">
         <v>2</v>
@@ -2843,11 +3177,15 @@
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f>I26*H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J26:J43" si="1">I26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -2856,9 +3194,8 @@
         <v>84</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>102</v>
+      <c r="G27" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="H27" s="6">
         <v>5</v>
@@ -2867,11 +3204,15 @@
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <f>I27*H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>2</v>
@@ -2880,11 +3221,11 @@
         <v>84</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>96</v>
+      <c r="F28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="H28" s="6">
         <v>15</v>
@@ -2893,11 +3234,15 @@
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <f>I28*H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>3</v>
@@ -2906,11 +3251,11 @@
         <v>84</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>99</v>
+      <c r="G29" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="H29" s="6">
         <v>10</v>
@@ -2919,11 +3264,15 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f>I29*H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
         <v>4</v>
@@ -2932,24 +3281,31 @@
         <v>84</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H30" s="6">
         <v>10</v>
       </c>
       <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
-      <c r="J30" s="6">
-        <f>I30*H30</f>
+      <c r="L30">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
         <v>5</v>
@@ -2958,11 +3314,11 @@
         <v>84</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>97</v>
+      <c r="G31" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="H31" s="6">
         <v>10</v>
@@ -2971,11 +3327,15 @@
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f>I31*H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -2984,8 +3344,6 @@
         <v>86</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
       <c r="H32" s="6">
         <v>3</v>
       </c>
@@ -2993,11 +3351,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <f>I32*H32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>7</v>
@@ -3008,10 +3370,10 @@
       <c r="E33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="36">
         <v>4</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="36" t="s">
         <v>89</v>
       </c>
       <c r="H33" s="6">
@@ -3021,11 +3383,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <f>I33*H33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
         <v>8</v>
@@ -3036,10 +3402,9 @@
       <c r="E34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="36">
         <v>3</v>
       </c>
-      <c r="G34" s="6"/>
       <c r="H34" s="6">
         <v>10</v>
       </c>
@@ -3047,13 +3412,17 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f>I34*H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>13</v>
@@ -3062,8 +3431,6 @@
         <v>84</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
       <c r="H35" s="6">
         <v>5</v>
       </c>
@@ -3071,11 +3438,15 @@
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <f>I35*H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
@@ -3084,10 +3455,10 @@
         <v>84</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="36" t="s">
         <v>94</v>
       </c>
       <c r="H36" s="6">
@@ -3097,11 +3468,15 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <f>I36*H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="6" t="s">
         <v>15</v>
@@ -3112,10 +3487,9 @@
       <c r="E37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="36">
         <v>3</v>
       </c>
-      <c r="G37" s="6"/>
       <c r="H37" s="6">
         <v>5</v>
       </c>
@@ -3123,11 +3497,15 @@
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <f>I37*H37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="6" t="s">
         <v>16</v>
@@ -3136,10 +3514,8 @@
         <v>71</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+        <v>105</v>
+      </c>
       <c r="H38" s="6">
         <v>15</v>
       </c>
@@ -3147,11 +3523,15 @@
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <f>I38*H38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="6" t="s">
         <v>17</v>
@@ -3160,11 +3540,11 @@
         <v>84</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>103</v>
+      <c r="F39" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="H39" s="6">
         <v>15</v>
@@ -3173,21 +3553,25 @@
         <v>0</v>
       </c>
       <c r="J39" s="6">
-        <f>I39*H39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="18">
         <v>25</v>
       </c>
@@ -3195,11 +3579,15 @@
         <v>0</v>
       </c>
       <c r="J40" s="18">
-        <f>I40*H40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
         <v>9</v>
@@ -3208,9 +3596,8 @@
         <v>85</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
-        <v>105</v>
+      <c r="G41" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="H41" s="6">
         <v>20</v>
@@ -3219,11 +3606,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <f>I41*H41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
         <v>11</v>
@@ -3232,9 +3623,9 @@
         <v>85</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18" t="s">
-        <v>104</v>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H42" s="6">
         <v>5</v>
@@ -3243,11 +3634,15 @@
         <v>0</v>
       </c>
       <c r="J42" s="6">
-        <f>I42*H42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="18" t="s">
         <v>10</v>
@@ -3256,8 +3651,8 @@
         <v>85</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="18">
         <v>10</v>
       </c>
@@ -3265,63 +3660,65 @@
         <v>0</v>
       </c>
       <c r="J43" s="18">
-        <f>I43*H43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J44" s="2">
         <f>SUM(J26:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="32">
+        <f>SUM(Tabelle21011[Zusatzkosten])</f>
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="38" t="s">
         <v>90</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -3333,8 +3730,14 @@
       <c r="J47" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
         <v>12</v>
@@ -3343,9 +3746,8 @@
         <v>84</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="19" t="s">
-        <v>98</v>
+      <c r="G48" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="H48" s="6">
         <v>2</v>
@@ -3354,11 +3756,15 @@
         <v>0</v>
       </c>
       <c r="J48" s="6">
-        <f>I48*H48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J48:J65" si="2">I48*H48</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -3367,22 +3773,25 @@
         <v>84</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>102</v>
+      <c r="G49" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="H49" s="6">
         <v>5</v>
       </c>
       <c r="I49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="6">
-        <f>I49*H49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
         <v>2</v>
@@ -3391,11 +3800,11 @@
         <v>84</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>96</v>
+      <c r="F50" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="H50" s="6">
         <v>15</v>
@@ -3404,11 +3813,15 @@
         <v>0</v>
       </c>
       <c r="J50" s="6">
-        <f>I50*H50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
         <v>3</v>
@@ -3417,24 +3830,28 @@
         <v>84</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>99</v>
+      <c r="G51" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="H51" s="6">
         <v>10</v>
       </c>
       <c r="I51" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="6">
-        <f>I51*H51</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
         <v>4</v>
@@ -3443,11 +3860,11 @@
         <v>84</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H52" s="6">
         <v>10</v>
@@ -3456,11 +3873,15 @@
         <v>0</v>
       </c>
       <c r="J52" s="6">
-        <f>I52*H52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
         <v>5</v>
@@ -3469,11 +3890,11 @@
         <v>84</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>97</v>
+      <c r="G53" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="H53" s="6">
         <v>10</v>
@@ -3482,11 +3903,15 @@
         <v>1</v>
       </c>
       <c r="J53" s="6">
-        <f>I53*H53</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
         <v>6</v>
@@ -3495,8 +3920,6 @@
         <v>86</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
       <c r="H54" s="6">
         <v>3</v>
       </c>
@@ -3504,11 +3927,15 @@
         <v>0</v>
       </c>
       <c r="J54" s="6">
-        <f>I54*H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
         <v>7</v>
@@ -3519,10 +3946,10 @@
       <c r="E55" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="36">
         <v>4</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="36" t="s">
         <v>89</v>
       </c>
       <c r="H55" s="6">
@@ -3532,11 +3959,18 @@
         <v>0</v>
       </c>
       <c r="J55" s="6">
-        <f>I55*H55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
         <v>8</v>
@@ -3547,10 +3981,9 @@
       <c r="E56" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="36">
         <v>3</v>
       </c>
-      <c r="G56" s="6"/>
       <c r="H56" s="6">
         <v>10</v>
       </c>
@@ -3558,13 +3991,17 @@
         <v>0</v>
       </c>
       <c r="J56" s="6">
-        <f>I56*H56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>13</v>
@@ -3573,8 +4010,6 @@
         <v>84</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
       <c r="H57" s="6">
         <v>5</v>
       </c>
@@ -3582,11 +4017,15 @@
         <v>0</v>
       </c>
       <c r="J57" s="6">
-        <f>I57*H57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="30"/>
       <c r="C58" s="6" t="s">
         <v>14</v>
@@ -3595,10 +4034,10 @@
         <v>84</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="36" t="s">
         <v>94</v>
       </c>
       <c r="H58" s="6">
@@ -3608,11 +4047,15 @@
         <v>0</v>
       </c>
       <c r="J58" s="6">
-        <f>I58*H58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="30"/>
       <c r="C59" s="6" t="s">
         <v>15</v>
@@ -3623,10 +4066,9 @@
       <c r="E59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="36">
         <v>3</v>
       </c>
-      <c r="G59" s="6"/>
       <c r="H59" s="6">
         <v>5</v>
       </c>
@@ -3634,11 +4076,15 @@
         <v>0</v>
       </c>
       <c r="J59" s="6">
-        <f>I59*H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="30"/>
       <c r="C60" s="6" t="s">
         <v>16</v>
@@ -3647,10 +4093,8 @@
         <v>71</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+        <v>105</v>
+      </c>
       <c r="H60" s="6">
         <v>15</v>
       </c>
@@ -3658,11 +4102,15 @@
         <v>0</v>
       </c>
       <c r="J60" s="6">
-        <f>I60*H60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="30"/>
       <c r="C61" s="6" t="s">
         <v>17</v>
@@ -3671,11 +4119,11 @@
         <v>84</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>103</v>
+      <c r="F61" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="H61" s="6">
         <v>15</v>
@@ -3684,21 +4132,25 @@
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <f>I61*H61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="30"/>
       <c r="C62" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
       <c r="H62" s="18">
         <v>25</v>
       </c>
@@ -3706,11 +4158,15 @@
         <v>0</v>
       </c>
       <c r="J62" s="18">
-        <f>I62*H62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
         <v>9</v>
@@ -3719,9 +4175,8 @@
         <v>85</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6" t="s">
-        <v>105</v>
+      <c r="G63" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="H63" s="6">
         <v>20</v>
@@ -3730,11 +4185,18 @@
         <v>0</v>
       </c>
       <c r="J63" s="6">
-        <f>I63*H63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -3743,9 +4205,9 @@
         <v>85</v>
       </c>
       <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18" t="s">
-        <v>104</v>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H64" s="6">
         <v>5</v>
@@ -3754,11 +4216,15 @@
         <v>1</v>
       </c>
       <c r="J64" s="6">
-        <f>I64*H64</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="18" t="s">
         <v>10</v>
@@ -3767,56 +4233,65 @@
         <v>85</v>
       </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
       <c r="H65" s="18">
         <v>10</v>
       </c>
       <c r="I65" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" s="18">
-        <f>I65*H65</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J66" s="2">
         <f>SUM(J48:J65)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="L66" s="32">
+        <f>SUM(Tabelle21012[Zusatzkosten])</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="38" t="s">
         <v>90</v>
       </c>
       <c r="H69" s="12" t="s">
@@ -3828,8 +4303,14 @@
       <c r="J69" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
         <v>12</v>
@@ -3838,9 +4319,8 @@
         <v>84</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="19" t="s">
-        <v>98</v>
+      <c r="G70" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="H70" s="6">
         <v>2</v>
@@ -3849,11 +4329,15 @@
         <v>0</v>
       </c>
       <c r="J70" s="6">
-        <f>I70*H70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J70:J87" si="3">I70*H70</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
         <v>1</v>
@@ -3862,9 +4346,8 @@
         <v>84</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6" t="s">
-        <v>102</v>
+      <c r="G71" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="H71" s="6">
         <v>5</v>
@@ -3873,11 +4356,15 @@
         <v>0</v>
       </c>
       <c r="J71" s="6">
-        <f>I71*H71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
         <v>2</v>
@@ -3886,11 +4373,11 @@
         <v>84</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>96</v>
+      <c r="F72" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="H72" s="6">
         <v>15</v>
@@ -3899,11 +4386,15 @@
         <v>0</v>
       </c>
       <c r="J72" s="6">
-        <f>I72*H72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
         <v>3</v>
@@ -3912,11 +4403,11 @@
         <v>84</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>99</v>
+      <c r="G73" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="H73" s="6">
         <v>10</v>
@@ -3925,11 +4416,15 @@
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <f>I73*H73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
         <v>4</v>
@@ -3938,11 +4433,11 @@
         <v>84</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H74" s="6">
         <v>10</v>
@@ -3951,11 +4446,15 @@
         <v>0</v>
       </c>
       <c r="J74" s="6">
-        <f>I74*H74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
         <v>5</v>
@@ -3964,11 +4463,11 @@
         <v>84</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>97</v>
+      <c r="G75" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="H75" s="6">
         <v>10</v>
@@ -3977,11 +4476,15 @@
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <f>I75*H75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
         <v>6</v>
@@ -3990,8 +4493,6 @@
         <v>86</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
       <c r="H76" s="6">
         <v>3</v>
       </c>
@@ -3999,11 +4500,15 @@
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <f>I76*H76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
         <v>7</v>
@@ -4014,10 +4519,10 @@
       <c r="E77" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="36">
         <v>4</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="36" t="s">
         <v>89</v>
       </c>
       <c r="H77" s="6">
@@ -4027,11 +4532,15 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <f>I77*H77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
         <v>8</v>
@@ -4042,10 +4551,9 @@
       <c r="E78" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="36">
         <v>3</v>
       </c>
-      <c r="G78" s="6"/>
       <c r="H78" s="6">
         <v>10</v>
       </c>
@@ -4053,13 +4561,17 @@
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <f>I78*H78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>13</v>
@@ -4068,8 +4580,6 @@
         <v>84</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
       <c r="H79" s="6">
         <v>5</v>
       </c>
@@ -4077,11 +4587,15 @@
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <f>I79*H79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="30"/>
       <c r="C80" s="6" t="s">
         <v>14</v>
@@ -4090,10 +4604,10 @@
         <v>84</v>
       </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="36" t="s">
         <v>94</v>
       </c>
       <c r="H80" s="6">
@@ -4103,11 +4617,15 @@
         <v>3</v>
       </c>
       <c r="J80" s="6">
-        <f>I80*H80</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="30"/>
       <c r="C81" s="6" t="s">
         <v>15</v>
@@ -4118,10 +4636,9 @@
       <c r="E81" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="36">
         <v>3</v>
       </c>
-      <c r="G81" s="6"/>
       <c r="H81" s="6">
         <v>5</v>
       </c>
@@ -4129,11 +4646,15 @@
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>I81*H81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="30"/>
       <c r="C82" s="6" t="s">
         <v>16</v>
@@ -4142,10 +4663,8 @@
         <v>71</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+        <v>105</v>
+      </c>
       <c r="H82" s="6">
         <v>15</v>
       </c>
@@ -4153,11 +4672,15 @@
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>I82*H82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="30"/>
       <c r="C83" s="6" t="s">
         <v>17</v>
@@ -4166,11 +4689,11 @@
         <v>84</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>103</v>
+      <c r="F83" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="H83" s="6">
         <v>15</v>
@@ -4179,21 +4702,25 @@
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>I83*H83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="30"/>
       <c r="C84" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>71</v>
       </c>
       <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
       <c r="H84" s="18">
         <v>25</v>
       </c>
@@ -4201,11 +4728,15 @@
         <v>0</v>
       </c>
       <c r="J84" s="18">
-        <f>I84*H84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
         <v>9</v>
@@ -4214,9 +4745,8 @@
         <v>85</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6" t="s">
-        <v>105</v>
+      <c r="G85" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="H85" s="6">
         <v>20</v>
@@ -4225,11 +4755,15 @@
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <f>I85*H85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -4238,22 +4772,29 @@
         <v>85</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18" t="s">
-        <v>104</v>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="H86" s="6">
         <v>5</v>
       </c>
       <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
         <v>3</v>
       </c>
-      <c r="J86" s="6">
-        <f>I86*H86</f>
+      <c r="L86">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="18" t="s">
         <v>10</v>
@@ -4262,8 +4803,8 @@
         <v>85</v>
       </c>
       <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
       <c r="H87" s="18">
         <v>10</v>
       </c>
@@ -4271,24 +4812,569 @@
         <v>0</v>
       </c>
       <c r="J87" s="18">
-        <f>I87*H87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="6" t="s">
+      <c r="I88" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J88" s="2">
         <f>SUM(J70:J87)</f>
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="L88" s="32">
+        <f>SUM(Tabelle2101213[Zusatzkosten])</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C91" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="G92" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="6">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <f t="shared" ref="J92:J109" si="4">I92*H92</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="G93" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="6">
+        <v>5</v>
+      </c>
+      <c r="I93" s="6">
+        <v>5</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="L93">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="6">
+        <v>15</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H95" s="6">
+        <v>10</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H96" s="6">
+        <v>10</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H97" s="6">
+        <v>10</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="H98" s="6">
+        <v>3</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="36">
+        <v>4</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" s="6">
+        <v>25</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="36">
+        <v>3</v>
+      </c>
+      <c r="H100" s="6">
+        <v>10</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="H101" s="6">
+        <v>5</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" s="6">
+        <v>5</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" s="36">
+        <v>3</v>
+      </c>
+      <c r="H103" s="6">
+        <v>5</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H104" s="6">
+        <v>15</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H105" s="6">
+        <v>15</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C106" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="18"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="18">
+        <v>25</v>
+      </c>
+      <c r="I106" s="18">
+        <v>0</v>
+      </c>
+      <c r="J106" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="G107" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H107" s="6">
+        <v>20</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H108" s="6">
+        <v>5</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C109" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="18">
+        <v>10</v>
+      </c>
+      <c r="I109" s="18">
+        <v>0</v>
+      </c>
+      <c r="J109" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J110" s="2">
+        <f>SUM(J92:J109)</f>
+        <v>25</v>
+      </c>
+      <c r="L110" s="32">
+        <f>SUM(Tabelle21012132[Zusatzkosten])</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4299,6 +5385,66 @@
     <mergeCell ref="B79:B84"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H12 H19:H21">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J12 J19:J21">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H18">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J18">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H34 H41:H43">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J34 J41:J43">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4310,7 +5456,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J12 J19:J21">
+  <conditionalFormatting sqref="H35:H40">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J40">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H56 H63:H65">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J56 J63:J65">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H62">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:J62">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -4322,8 +5528,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H18">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="H70:H78 H85:H87">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4334,8 +5540,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J18">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="J70:J78 J85:J87">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4346,8 +5552,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H34 H41:H43">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="H79:H84">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4358,7 +5564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J34 J41:J43">
+  <conditionalFormatting sqref="J79:J84">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4370,43 +5576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J40">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H56 H63:H65">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56 J63:J65">
+  <conditionalFormatting sqref="J4:J21">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4418,8 +5588,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H62">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="J26:J43">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4430,8 +5600,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J62">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="J48:J65">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4442,7 +5612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H78 H85:H87">
+  <conditionalFormatting sqref="J70:J87">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4454,7 +5624,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J78 J85:J87">
+  <conditionalFormatting sqref="H92:H100 H107:H109">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:J100 J107:J109">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101:H106">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101:J106">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4466,67 +5672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H84">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J84">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J43">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J65">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J87">
+  <conditionalFormatting sqref="J92:J109">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4539,11 +5685,13 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="4">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4556,27 +5704,27 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="28" t="s">
         <v>69</v>
       </c>
@@ -4589,7 +5737,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="12" t="s">
         <v>48</v>
@@ -4617,7 +5765,7 @@
       </c>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
@@ -4642,14 +5790,14 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
@@ -4677,12 +5825,12 @@
       <c r="L6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="26">
         <f t="shared" ref="M6:M11" si="0">L6-3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
@@ -4710,12 +5858,12 @@
       <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -4743,12 +5891,12 @@
       <c r="L8" s="6">
         <v>8</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
@@ -4776,12 +5924,12 @@
       <c r="L9" s="6">
         <v>8</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>44</v>
       </c>
@@ -4809,12 +5957,12 @@
       <c r="L10" s="6">
         <v>3</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>45</v>
       </c>
@@ -4842,12 +5990,12 @@
       <c r="L11" s="6">
         <v>4</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
@@ -4875,11 +6023,11 @@
       <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -4907,11 +6055,11 @@
       <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4921,7 +6069,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>53</v>
       </c>
@@ -4954,7 +6102,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>54</v>
       </c>
@@ -4987,7 +6135,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>55</v>
       </c>
@@ -5020,7 +6168,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -5053,7 +6201,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>57</v>
       </c>
@@ -5086,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>58</v>
       </c>
@@ -5119,7 +6267,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>59</v>
       </c>
@@ -5152,7 +6300,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>60</v>
       </c>
@@ -5185,7 +6333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5197,7 +6345,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
@@ -5286,17 +6434,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -5313,15 +6461,15 @@
         <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="8">
         <v>6.3</v>
@@ -5340,14 +6488,14 @@
         <f t="shared" ref="G4:G17" si="0">F4*E4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8">
         <v>10.71</v>
@@ -5366,14 +6514,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8">
         <v>8.9499999999999993</v>
@@ -5392,14 +6540,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8">
         <v>9.4499999999999993</v>
@@ -5418,14 +6566,14 @@
         <f t="shared" si="0"/>
         <v>9.4499999999999993</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8">
         <v>11.99</v>
@@ -5444,14 +6592,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="8">
         <v>10.36</v>
@@ -5470,14 +6618,14 @@
         <f t="shared" si="0"/>
         <v>10.36</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8">
         <v>35.200000000000003</v>
@@ -5496,14 +6644,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="8">
         <v>21.49</v>
@@ -5522,14 +6670,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="8">
         <v>19.989999999999998</v>
@@ -5548,14 +6696,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="8">
         <v>7.99</v>
@@ -5574,14 +6722,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8">
         <v>19.989999999999998</v>
@@ -5600,14 +6748,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="8">
         <v>11.99</v>
@@ -5626,12 +6774,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>82</v>
       </c>
@@ -5652,20 +6800,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8">
         <v>22.75</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="8">
         <f>C17/10</f>
@@ -5678,12 +6826,12 @@
         <f t="shared" si="0"/>
         <v>13.649999999999999</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="27">
         <f>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>59.999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>64</v>
       </c>

--- a/kai-warband.xlsx
+++ b/kai-warband.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaute\Dropbox\Privat\Mordheim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{443CD8A0-B509-4A98-80CD-A728174AE88A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C42D4F2F-112C-4884-B148-5CCFEC33C894}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="146">
   <si>
     <t>gold</t>
   </si>
@@ -402,9 +402,6 @@
     <t xml:space="preserve">Mad Cap Mushroom </t>
   </si>
   <si>
-    <t>Goblin only</t>
-  </si>
-  <si>
     <t>boss</t>
   </si>
   <si>
@@ -445,6 +442,30 @@
   </si>
   <si>
     <t>Heavy, Difficult to Use, S+1 (1st turn per h-t-h cc)</t>
+  </si>
+  <si>
+    <t>OSG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S=Schamane</t>
+  </si>
+  <si>
+    <t>G=Goblins</t>
+  </si>
+  <si>
+    <t>O=Boss, Old'Uns, Boys</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
   </si>
 </sst>
 </file>
@@ -520,7 +541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +551,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,15 +656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,99 +677,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -805,36 +752,13 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -869,36 +793,13 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -933,6 +834,15 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="double">
           <color indexed="64"/>
@@ -965,24 +875,130 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,160 +1014,166 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE917802-B44D-499F-9629-F449A9717EB8}" name="Tabelle2" displayName="Tabelle2" ref="B22:K40" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="B22:K40" xr:uid="{44A6AEBB-554F-4429-9958-59CC72347D72}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE917802-B44D-499F-9629-F449A9717EB8}" name="Tabelle2" displayName="Tabelle2" ref="B22:L40" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="B22:L40" xr:uid="{44A6AEBB-554F-4429-9958-59CC72347D72}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{C3F7CADD-1D9B-485D-A98F-A461132198D8}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{E1B629AA-5934-496E-AE67-61F0057A8E61}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{48A7FC81-357E-4698-9EC6-7293C8B7F0AB}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{7911AAC7-DEDA-4F77-975E-065359528994}" name="S" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7911AAC7-DEDA-4F77-975E-065359528994}" name="S" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{F112F27E-2831-4F67-B715-59D2957BBD71}" name="SP"/>
     <tableColumn id="6" xr3:uid="{BE0B4CE5-22FF-4815-9117-19EF8B707F9B}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{E1FB3943-AA28-4F2A-96CB-CB370CF8456C}" name="anzahl" dataDxfId="18">
-      <calculatedColumnFormula>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70+Weapons!I92</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{E1FB3943-AA28-4F2A-96CB-CB370CF8456C}" name="anzahl" dataDxfId="41">
+      <calculatedColumnFormula>Weapons!I7+Weapons!I29+Weapons!I51+Weapons!I73+Weapons!I95</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D5BC51F7-A5CF-4986-B4E0-209C1AB4E6E7}" name="kosten">
       <calculatedColumnFormula>H23*G23</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E02889F0-3F2E-4F11-8634-A762B38917F6}" name="wunsch" dataDxfId="12">
-      <calculatedColumnFormula>Weapons!K4+Weapons!K26+Weapons!K48+Weapons!K70+Weapons!K92</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{E02889F0-3F2E-4F11-8634-A762B38917F6}" name="wunsch" dataDxfId="40">
+      <calculatedColumnFormula>Weapons!K7+Weapons!K29+Weapons!K51+Weapons!K73+Weapons!K95</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{528F5479-4A41-4195-B8BB-079A00225EF9}" name="zusatzkosten" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{528F5479-4A41-4195-B8BB-079A00225EF9}" name="zusatzkosten" dataDxfId="39">
       <calculatedColumnFormula>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{86435A8A-F75A-4C84-A658-D9051665E5DE}" name="Gruppe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0072B454-E953-427D-821E-0D80E7563EFB}" name="Tabelle210" displayName="Tabelle210" ref="C3:L21" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="C3:L21" xr:uid="{AFEABBA7-91D9-46A8-A6D9-78F14A02B2E7}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0072B454-E953-427D-821E-0D80E7563EFB}" name="Tabelle210" displayName="Tabelle210" ref="C6:M24" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="C6:M24" xr:uid="{AFEABBA7-91D9-46A8-A6D9-78F14A02B2E7}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F5EB73A5-5414-45EE-8BA8-02A697C62F24}" name="boss"/>
     <tableColumn id="2" xr3:uid="{6FFF486D-74DF-452E-B7FA-2D6515DA4D53}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{110D57DA-CEA1-48E5-9F87-FDF024F729E9}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{4927F1BC-A5CE-4DD4-8D4B-32683EC16EF4}" name="S" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B29E183E-80EA-44EC-A977-492A910D1305}" name="SP" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4927F1BC-A5CE-4DD4-8D4B-32683EC16EF4}" name="S" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{B29E183E-80EA-44EC-A977-492A910D1305}" name="SP" dataDxfId="34"/>
     <tableColumn id="6" xr3:uid="{A20EE973-5D6C-4DC5-9358-034AF2068E16}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{E64F7803-1FD3-47FB-9C51-EB57F45F7149}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{2C948D2C-95CE-4610-ADE8-330CD584829A}" name="kosten">
-      <calculatedColumnFormula>I4*H4</calculatedColumnFormula>
+      <calculatedColumnFormula>I7*H7</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{AF07A97A-65C7-4E66-9941-3750C79F193A}" name="Wunsch"/>
-    <tableColumn id="10" xr3:uid="{2528C578-34DB-4E17-8F16-8799C7462AC2}" name="Zusatzkosten" dataDxfId="17">
+    <tableColumn id="10" xr3:uid="{2528C578-34DB-4E17-8F16-8799C7462AC2}" name="Zusatzkosten" dataDxfId="33">
       <calculatedColumnFormula>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{C5A3A4CD-880A-41E0-B8CF-85B11B3C9CDB}" name="Gruppe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AA034179-7FCF-4AE7-A8C7-00A34D37A4D8}" name="Tabelle21011" displayName="Tabelle21011" ref="C25:L43" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="C25:L43" xr:uid="{E5A65A45-A340-4682-8EF3-211FAAD8669A}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AA034179-7FCF-4AE7-A8C7-00A34D37A4D8}" name="Tabelle21011" displayName="Tabelle21011" ref="C28:M46" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="C28:M46" xr:uid="{E5A65A45-A340-4682-8EF3-211FAAD8669A}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A53CC773-0203-4F5C-B7EC-780905AFA8F1}" name="schamane"/>
     <tableColumn id="2" xr3:uid="{5EA295C1-9847-43CC-B040-AFE69F1366F7}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{60893CED-C72D-432E-B4E5-D3B179621D44}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{EC17262E-2D9D-42B2-A907-D895AE1CF8F2}" name="S" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{64CA7C31-C328-42AA-940A-17CAFEEF2730}" name="SP" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EC17262E-2D9D-42B2-A907-D895AE1CF8F2}" name="S" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{64CA7C31-C328-42AA-940A-17CAFEEF2730}" name="SP" dataDxfId="28"/>
     <tableColumn id="6" xr3:uid="{2BE03827-E168-424C-8C1B-6CAEC6E86593}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{ABF3F9DC-586E-49A9-A5C5-3FA93561388A}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{29765055-B208-4735-8801-0FCC51160A82}" name="kosten">
-      <calculatedColumnFormula>I26*H26</calculatedColumnFormula>
+      <calculatedColumnFormula>I29*H29</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{16B28F51-570E-4D1B-9258-CE9DF7FF5401}" name="Wunsch"/>
-    <tableColumn id="10" xr3:uid="{BE5F560F-BE61-40EE-ADE1-992D61D9445C}" name="Zusatzkosten" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{BE5F560F-BE61-40EE-ADE1-992D61D9445C}" name="Zusatzkosten" dataDxfId="27">
       <calculatedColumnFormula>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{B06D03DA-0E96-4431-9D08-911935CA7E27}" name="Gruppe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4E492FB1-9556-429A-8F67-4B6950C5B294}" name="Tabelle21012" displayName="Tabelle21012" ref="C47:L65" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="C47:L65" xr:uid="{BA77243D-D832-49A7-A71B-DA40B06A6907}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4E492FB1-9556-429A-8F67-4B6950C5B294}" name="Tabelle21012" displayName="Tabelle21012" ref="C50:M68" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="C50:M68" xr:uid="{BA77243D-D832-49A7-A71B-DA40B06A6907}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{96C0524C-6310-4C91-8F84-0D1F9E816C7E}" name="big'uns"/>
     <tableColumn id="2" xr3:uid="{5E8FDC86-4004-4B76-A01D-079DDD0617B2}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{10021E3A-D404-47D3-A9C7-0889FF619D6A}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{F9F543EF-381D-4911-95FB-0EB0564D81ED}" name="S" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AA0EE3E2-0A80-42E8-9D16-BC067EAF89EC}" name="SP" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F9F543EF-381D-4911-95FB-0EB0564D81ED}" name="S" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{AA0EE3E2-0A80-42E8-9D16-BC067EAF89EC}" name="SP" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{BDB34D96-3F1E-4B02-8AA5-E6F9EF3BFF9A}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{69AB72E5-4520-4F0D-804A-9B06114A85C3}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{C6BDC6F1-6063-4E78-9C93-5F1C80ED5410}" name="kosten">
-      <calculatedColumnFormula>I48*H48</calculatedColumnFormula>
+      <calculatedColumnFormula>I51*H51</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{71C53FC7-F471-46B9-B790-25A9A2D1BF17}" name="Wunsch"/>
-    <tableColumn id="10" xr3:uid="{15380590-715A-4F9E-BEF1-500BB6F92367}" name="Zusatzkosten" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{15380590-715A-4F9E-BEF1-500BB6F92367}" name="Zusatzkosten" dataDxfId="21">
       <calculatedColumnFormula>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{DFBCD3E1-1E67-4EF3-9BE4-24F7ABF7D2F0}" name="Gruppe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6CAD1756-2EE5-4B8E-BD8B-BFCB45F5CEAF}" name="Tabelle2101213" displayName="Tabelle2101213" ref="C69:L87" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="C69:L87" xr:uid="{F5993C53-11DE-449B-AEBF-053143094B0D}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6CAD1756-2EE5-4B8E-BD8B-BFCB45F5CEAF}" name="Tabelle2101213" displayName="Tabelle2101213" ref="C72:M90" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="C72:M90" xr:uid="{F5993C53-11DE-449B-AEBF-053143094B0D}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0296A0F8-9319-4411-AC1A-07BB35E300D2}" name="goblins"/>
     <tableColumn id="2" xr3:uid="{4A108C9A-16A4-4542-BE17-0F2998E44B58}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{2C984FF7-A56A-4F4B-A977-10A461999CDF}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{ED5BA748-B650-4BEB-A7C8-825104B3F7DA}" name="S" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{31E0E70E-EEAE-4678-AB6C-C3336C905C2C}" name="SP" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{ED5BA748-B650-4BEB-A7C8-825104B3F7DA}" name="S" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{31E0E70E-EEAE-4678-AB6C-C3336C905C2C}" name="SP" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{BF88A6AA-DA83-410A-9B46-99F116A7CD84}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{52ECD462-D386-4835-9FF2-9FF785A29353}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{1CD894EA-A36E-4F51-9383-4D493C603B9A}" name="kosten">
-      <calculatedColumnFormula>I70*H70</calculatedColumnFormula>
+      <calculatedColumnFormula>I73*H73</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E1E008CD-8DF0-4674-ABDE-4ADF1D7E21C3}" name="Wunsch"/>
-    <tableColumn id="10" xr3:uid="{34EE0F17-D57F-4584-B6D0-B04FB701A58E}" name="Zusatzkosten" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{34EE0F17-D57F-4584-B6D0-B04FB701A58E}" name="Zusatzkosten" dataDxfId="15">
       <calculatedColumnFormula>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{3835663A-10E2-4563-8B13-765A0FB1D7E3}" name="Gruppe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00E6619C-4B57-485A-B3C1-11BDB271F765}" name="Tabelle21012132" displayName="Tabelle21012132" ref="C91:L109" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
-  <autoFilter ref="C91:L109" xr:uid="{7DD288ED-E26C-414B-A1C1-70E7BF7A265D}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00E6619C-4B57-485A-B3C1-11BDB271F765}" name="Tabelle21012132" displayName="Tabelle21012132" ref="C94:M112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="C94:M112" xr:uid="{7DD288ED-E26C-414B-A1C1-70E7BF7A265D}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B2C60899-7903-454D-8BC5-7F908BD04844}" name="ork boys"/>
     <tableColumn id="2" xr3:uid="{A659A21A-71C6-40D3-9581-3D92BA87EA19}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{ADB9CA0D-EBB2-432A-90B3-90C775931159}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{D86CE352-65C9-407F-B14A-11F8422DD9E6}" name="S" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{BF8C4025-64F5-4EF4-8715-07BC96B1B2F6}" name="SP" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D86CE352-65C9-407F-B14A-11F8422DD9E6}" name="S" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{BF8C4025-64F5-4EF4-8715-07BC96B1B2F6}" name="SP" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{F8B1C7A8-0F0D-446A-A0FC-09DE917E1F3C}" name="gold/stück"/>
     <tableColumn id="7" xr3:uid="{10184BF8-42E5-4994-BAFE-BD22F39BE94E}" name="anzahl"/>
     <tableColumn id="8" xr3:uid="{1F7605EE-E3D1-4C54-8F48-1D735E2541EB}" name="kosten">
-      <calculatedColumnFormula>I92*H92</calculatedColumnFormula>
+      <calculatedColumnFormula>I95*H95</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{FB195855-A1F2-4683-9281-91D2AA216753}" name="Wunsch"/>
-    <tableColumn id="10" xr3:uid="{76A786FC-42BD-4821-B492-0881AE5B21EC}" name="Zusatzkosten" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{76A786FC-42BD-4821-B492-0881AE5B21EC}" name="Zusatzkosten" dataDxfId="9">
       <calculatedColumnFormula>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{59297F4C-27B9-4CD8-A788-430CDE9814CD}" name="Gruppe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58E16604-D8D1-4C69-B280-F570770AF240}" name="Tabelle4" displayName="Tabelle4" ref="B3:H17" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{58E16604-D8D1-4C69-B280-F570770AF240}" name="Tabelle4" displayName="Tabelle4" ref="B3:H17" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B3:H17" xr:uid="{30593F58-FB8B-4941-8604-A0FBCEF09A91}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{320E3AE4-66E9-4E58-AE33-840E6BEC4162}" name="Mögliche einheiten" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1E1E82CF-332B-447C-85E2-C5C032920B8B}" name="€/Packung" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{320E3AE4-66E9-4E58-AE33-840E6BEC4162}" name="Mögliche einheiten" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1E1E82CF-332B-447C-85E2-C5C032920B8B}" name="€/Packung" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{8376770F-A2D7-4268-A7F3-BC48CC588BF8}" name="Ausrüstung"/>
-    <tableColumn id="4" xr3:uid="{804B05B3-5F01-4C54-A035-85A7C16ED018}" name="€/Figur" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{804B05B3-5F01-4C54-A035-85A7C16ED018}" name="€/Figur" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{DFB46912-9C74-4E20-93C8-CCFB57123305}" name="Genutzte figuren"/>
-    <tableColumn id="6" xr3:uid="{F29DEE1E-ED49-44B7-8D41-83BE77CE9F69}" name="€ genutzt/Packung" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{F29DEE1E-ED49-44B7-8D41-83BE77CE9F69}" name="€ genutzt/Packung" dataDxfId="4">
       <calculatedColumnFormula>F4*E4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1FBCF302-A365-4A98-9AA1-B20E5B18E736}" name="Prozentuale Nutzung" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{1FBCF302-A365-4A98-9AA1-B20E5B18E736}" name="Prozentuale Nutzung" dataDxfId="3">
       <calculatedColumnFormula>100*Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1424,40 +1446,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W118"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
@@ -1470,9 +1492,9 @@
         <v>43336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>106</v>
@@ -1484,7 +1506,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1514,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1501,8 +1523,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B7">
@@ -1510,9 +1532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1529,17 +1551,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>68</v>
       </c>
       <c r="C12">
         <v>80</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="31">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>20</v>
       </c>
       <c r="F12">
@@ -1547,17 +1569,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>10</v>
       </c>
       <c r="F13">
@@ -1565,17 +1587,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="31">
         <v>3</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>15</v>
       </c>
       <c r="F14">
@@ -1583,17 +1605,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="31">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
         <v>0</v>
       </c>
       <c r="F15">
@@ -1601,17 +1623,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="31">
         <v>3</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1619,17 +1641,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="31">
         <v>5</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1637,17 +1659,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5">
         <v>200</v>
       </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
         <v>0</v>
       </c>
       <c r="F18" s="5">
@@ -1655,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
@@ -1669,18 +1691,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>83</v>
@@ -1704,13 +1726,16 @@
         <v>22</v>
       </c>
       <c r="J22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>12</v>
@@ -1718,7 +1743,7 @@
       <c r="C23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="19" t="s">
         <v>97</v>
       </c>
@@ -1726,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <f>Weapons!I4+Weapons!I26+Weapons!I48+Weapons!I70+Weapons!I92</f>
+        <f>Weapons!I7+Weapons!I29+Weapons!I51+Weapons!I73+Weapons!I95</f>
         <v>0</v>
       </c>
       <c r="I23">
@@ -1734,15 +1759,18 @@
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <f>Weapons!K4+Weapons!K26+Weapons!K48+Weapons!K70+Weapons!K92</f>
+        <f>Weapons!K7+Weapons!K29+Weapons!K51+Weapons!K73+Weapons!K95</f>
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" t="s">
         <v>1</v>
@@ -1750,7 +1778,7 @@
       <c r="C24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="6" t="s">
         <v>101</v>
       </c>
@@ -1758,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="6">
-        <f>Weapons!I5+Weapons!I27+Weapons!I49+Weapons!I71+Weapons!I93</f>
+        <f>Weapons!I8+Weapons!I30+Weapons!I52+Weapons!I74+Weapons!I96</f>
         <v>6</v>
       </c>
       <c r="I24">
@@ -1766,15 +1794,18 @@
         <v>30</v>
       </c>
       <c r="J24" s="6">
-        <f>Weapons!K5+Weapons!K27+Weapons!K49+Weapons!K71+Weapons!K93</f>
+        <f>Weapons!K8+Weapons!K30+Weapons!K52+Weapons!K74+Weapons!K96</f>
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>2</v>
@@ -1782,17 +1813,17 @@
       <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="33" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25">
         <v>15</v>
       </c>
       <c r="H25" s="6">
-        <f>Weapons!I6+Weapons!I28+Weapons!I50+Weapons!I72+Weapons!I94</f>
+        <f>Weapons!I9+Weapons!I31+Weapons!I53+Weapons!I75+Weapons!I97</f>
         <v>0</v>
       </c>
       <c r="I25">
@@ -1800,15 +1831,18 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <f>Weapons!K6+Weapons!K28+Weapons!K50+Weapons!K72+Weapons!K94</f>
+        <f>Weapons!K9+Weapons!K31+Weapons!K53+Weapons!K75+Weapons!K97</f>
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>3</v>
@@ -1816,7 +1850,7 @@
       <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="33" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1826,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="H26" s="6">
-        <f>Weapons!I7+Weapons!I29+Weapons!I51+Weapons!I73+Weapons!I95</f>
+        <f>Weapons!I10+Weapons!I32+Weapons!I54+Weapons!I76+Weapons!I98</f>
         <v>1</v>
       </c>
       <c r="I26">
@@ -1834,15 +1868,18 @@
         <v>10</v>
       </c>
       <c r="J26" s="6">
-        <f>Weapons!K7+Weapons!K29+Weapons!K51+Weapons!K73+Weapons!K95</f>
+        <f>Weapons!K10+Weapons!K32+Weapons!K54+Weapons!K76+Weapons!K98</f>
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>4</v>
@@ -1850,7 +1887,7 @@
       <c r="C27" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="33" t="s">
         <v>99</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -1860,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="6">
-        <f>Weapons!I8+Weapons!I30+Weapons!I52+Weapons!I74+Weapons!I96</f>
+        <f>Weapons!I11+Weapons!I33+Weapons!I55+Weapons!I77+Weapons!I99</f>
         <v>1</v>
       </c>
       <c r="I27">
@@ -1868,15 +1905,18 @@
         <v>10</v>
       </c>
       <c r="J27" s="6">
-        <f>Weapons!K8+Weapons!K30+Weapons!K52+Weapons!K74+Weapons!K96</f>
+        <f>Weapons!K11+Weapons!K33+Weapons!K55+Weapons!K77+Weapons!K99</f>
         <v>1</v>
       </c>
       <c r="K27" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" t="s">
         <v>5</v>
@@ -1884,7 +1924,7 @@
       <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1894,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="6">
-        <f>Weapons!I9+Weapons!I31+Weapons!I53+Weapons!I75+Weapons!I97</f>
+        <f>Weapons!I12+Weapons!I34+Weapons!I56+Weapons!I78+Weapons!I100</f>
         <v>1</v>
       </c>
       <c r="I28">
@@ -1902,15 +1942,18 @@
         <v>10</v>
       </c>
       <c r="J28" s="6">
-        <f>Weapons!K9+Weapons!K31+Weapons!K53+Weapons!K75+Weapons!K97</f>
+        <f>Weapons!K12+Weapons!K34+Weapons!K56+Weapons!K78+Weapons!K100</f>
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>6</v>
@@ -1918,12 +1961,12 @@
       <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="33"/>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" s="6">
-        <f>Weapons!I10+Weapons!I32+Weapons!I54+Weapons!I76+Weapons!I98</f>
+        <f>Weapons!I13+Weapons!I35+Weapons!I57+Weapons!I79+Weapons!I101</f>
         <v>0</v>
       </c>
       <c r="I29">
@@ -1931,15 +1974,18 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f>Weapons!K10+Weapons!K32+Weapons!K54+Weapons!K76+Weapons!K98</f>
+        <f>Weapons!K13+Weapons!K35+Weapons!K57+Weapons!K79+Weapons!K101</f>
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>7</v>
@@ -1950,7 +1996,7 @@
       <c r="D30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="33">
         <v>4</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -1960,7 +2006,7 @@
         <v>25</v>
       </c>
       <c r="H30" s="6">
-        <f>Weapons!I11+Weapons!I33+Weapons!I55+Weapons!I77+Weapons!I99</f>
+        <f>Weapons!I14+Weapons!I36+Weapons!I58+Weapons!I80+Weapons!I102</f>
         <v>0</v>
       </c>
       <c r="I30">
@@ -1968,15 +2014,18 @@
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <f>Weapons!K11+Weapons!K33+Weapons!K55+Weapons!K77+Weapons!K99</f>
+        <f>Weapons!K14+Weapons!K36+Weapons!K58+Weapons!K80+Weapons!K102</f>
         <v>4</v>
       </c>
       <c r="K30" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>8</v>
@@ -1987,14 +2036,14 @@
       <c r="D31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="33">
         <v>3</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" s="6">
-        <f>Weapons!I12+Weapons!I34+Weapons!I56+Weapons!I78+Weapons!I100</f>
+        <f>Weapons!I15+Weapons!I37+Weapons!I59+Weapons!I81+Weapons!I103</f>
         <v>0</v>
       </c>
       <c r="I31">
@@ -2002,30 +2051,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f>Weapons!K12+Weapons!K34+Weapons!K56+Weapons!K78+Weapons!K100</f>
+        <f>Weapons!K15+Weapons!K37+Weapons!K59+Weapons!K81+Weapons!K103</f>
         <v>5</v>
       </c>
       <c r="K31" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>124</v>
-      </c>
+      <c r="L31" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="33"/>
       <c r="G32">
         <v>5</v>
       </c>
       <c r="H32" s="6">
-        <f>Weapons!I13+Weapons!I35+Weapons!I57+Weapons!I79+Weapons!I101</f>
+        <f>Weapons!I16+Weapons!I38+Weapons!I60+Weapons!I82+Weapons!I104</f>
         <v>0</v>
       </c>
       <c r="I32">
@@ -2033,23 +2082,25 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <f>Weapons!K13+Weapons!K35+Weapons!K57+Weapons!K79+Weapons!K101</f>
+        <f>Weapons!K16+Weapons!K38+Weapons!K60+Weapons!K82+Weapons!K104</f>
         <v>0</v>
       </c>
       <c r="K32" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="L32" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="33" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2059,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="6">
-        <f>Weapons!I14+Weapons!I36+Weapons!I58+Weapons!I80+Weapons!I102</f>
+        <f>Weapons!I17+Weapons!I39+Weapons!I61+Weapons!I83+Weapons!I105</f>
         <v>3</v>
       </c>
       <c r="I33">
@@ -2067,16 +2118,18 @@
         <v>15</v>
       </c>
       <c r="J33" s="6">
-        <f>Weapons!K14+Weapons!K36+Weapons!K58+Weapons!K80+Weapons!K102</f>
+        <f>Weapons!K17+Weapons!K39+Weapons!K61+Weapons!K83+Weapons!K105</f>
         <v>0</v>
       </c>
       <c r="K33" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="L33" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -2086,14 +2139,14 @@
       <c r="D34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="33">
         <v>3</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" s="6">
-        <f>Weapons!I15+Weapons!I37+Weapons!I59+Weapons!I81+Weapons!I103</f>
+        <f>Weapons!I18+Weapons!I40+Weapons!I62+Weapons!I84+Weapons!I106</f>
         <v>0</v>
       </c>
       <c r="I34">
@@ -2101,16 +2154,18 @@
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f>Weapons!K15+Weapons!K37+Weapons!K59+Weapons!K81+Weapons!K103</f>
+        <f>Weapons!K18+Weapons!K40+Weapons!K62+Weapons!K84+Weapons!K106</f>
         <v>0</v>
       </c>
       <c r="K34" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="L34" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -2120,12 +2175,12 @@
       <c r="D35" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="33"/>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35" s="6">
-        <f>Weapons!I16+Weapons!I38+Weapons!I60+Weapons!I82+Weapons!I104</f>
+        <f>Weapons!I19+Weapons!I41+Weapons!I63+Weapons!I85+Weapons!I107</f>
         <v>0</v>
       </c>
       <c r="I35">
@@ -2133,23 +2188,25 @@
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <f>Weapons!K16+Weapons!K38+Weapons!K60+Weapons!K82+Weapons!K104</f>
+        <f>Weapons!K19+Weapons!K41+Weapons!K63+Weapons!K85+Weapons!K107</f>
         <v>0</v>
       </c>
       <c r="K35" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="L35" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="33" t="s">
         <v>99</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2159,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="6">
-        <f>Weapons!I17+Weapons!I39+Weapons!I61+Weapons!I83+Weapons!I105</f>
+        <f>Weapons!I20+Weapons!I42+Weapons!I64+Weapons!I86+Weapons!I108</f>
         <v>0</v>
       </c>
       <c r="I36">
@@ -2167,16 +2224,18 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <f>Weapons!K17+Weapons!K39+Weapons!K61+Weapons!K83+Weapons!K105</f>
+        <f>Weapons!K20+Weapons!K42+Weapons!K64+Weapons!K86+Weapons!K108</f>
         <v>0</v>
       </c>
       <c r="K36" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="L36" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>123</v>
       </c>
@@ -2184,13 +2243,13 @@
         <v>71</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="37"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18">
         <v>25</v>
       </c>
       <c r="H37" s="6">
-        <f>Weapons!I18+Weapons!I40+Weapons!I62+Weapons!I84+Weapons!I106</f>
+        <f>Weapons!I21+Weapons!I43+Weapons!I65+Weapons!I87+Weapons!I109</f>
         <v>0</v>
       </c>
       <c r="I37" s="18">
@@ -2198,23 +2257,25 @@
         <v>0</v>
       </c>
       <c r="J37" s="6">
-        <f>Weapons!K18+Weapons!K40+Weapons!K62+Weapons!K84+Weapons!K106</f>
+        <f>Weapons!K21+Weapons!K43+Weapons!K65+Weapons!K87+Weapons!K109</f>
         <v>0</v>
       </c>
       <c r="K37" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
+      <c r="L37" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="6" t="s">
         <v>104</v>
       </c>
@@ -2222,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="6">
-        <f>Weapons!I19+Weapons!I41+Weapons!I63+Weapons!I85+Weapons!I107</f>
+        <f>Weapons!I22+Weapons!I44+Weapons!I66+Weapons!I88+Weapons!I110</f>
         <v>0</v>
       </c>
       <c r="I38">
@@ -2230,15 +2291,18 @@
         <v>0</v>
       </c>
       <c r="J38" s="6">
-        <f>Weapons!K19+Weapons!K41+Weapons!K63+Weapons!K85+Weapons!K107</f>
+        <f>Weapons!K22+Weapons!K44+Weapons!K66+Weapons!K88+Weapons!K110</f>
         <v>4</v>
       </c>
       <c r="K38" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" t="s">
         <v>11</v>
@@ -2247,7 +2311,7 @@
         <v>85</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="37"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="18" t="s">
         <v>103</v>
       </c>
@@ -2255,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="6">
-        <f>Weapons!I20+Weapons!I42+Weapons!I64+Weapons!I86+Weapons!I108</f>
+        <f>Weapons!I23+Weapons!I45+Weapons!I67+Weapons!I89+Weapons!I111</f>
         <v>1</v>
       </c>
       <c r="I39">
@@ -2263,15 +2327,18 @@
         <v>5</v>
       </c>
       <c r="J39" s="6">
-        <f>Weapons!K20+Weapons!K42+Weapons!K64+Weapons!K86+Weapons!K108</f>
+        <f>Weapons!K23+Weapons!K45+Weapons!K67+Weapons!K89+Weapons!K111</f>
         <v>3</v>
       </c>
       <c r="K39" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="18" t="s">
         <v>10</v>
@@ -2280,13 +2347,13 @@
         <v>85</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="37"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18">
         <v>10</v>
       </c>
       <c r="H40" s="6">
-        <f>Weapons!I21+Weapons!I43+Weapons!I65+Weapons!I87+Weapons!I109</f>
+        <f>Weapons!I24+Weapons!I46+Weapons!I68+Weapons!I90+Weapons!I112</f>
         <v>1</v>
       </c>
       <c r="I40" s="18">
@@ -2294,15 +2361,18 @@
         <v>10</v>
       </c>
       <c r="J40" s="6">
-        <f>Weapons!K21+Weapons!K43+Weapons!K65+Weapons!K87+Weapons!K109</f>
+        <f>Weapons!K24+Weapons!K46+Weapons!K68+Weapons!K90+Weapons!K112</f>
         <v>3</v>
       </c>
       <c r="K40" s="6">
         <f>Tabelle2[[#This Row],[wunsch]]*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L40" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="G41"/>
@@ -2313,100 +2383,97 @@
         <f>SUM(I23:I40)</f>
         <v>90</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="29">
         <f>SUM(Tabelle2[zusatzkosten])</f>
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:15" x14ac:dyDescent="0.2">
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="10:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A32:A37"/>
-  </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="41" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2504,227 +2571,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF03C1C-15F7-4E06-B3B6-3B6DA9E751F9}">
-  <dimension ref="B2:S110"/>
+  <dimension ref="B2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="20" t="s">
+    <row r="2" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="33"/>
+      <c r="G2" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="33"/>
+      <c r="G3" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="33"/>
+      <c r="G4" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G6" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="M6" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J21" si="0">I4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="6">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="6">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="36" t="s">
-        <v>93</v>
-      </c>
       <c r="G7" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J24" si="0">I7*H7</f>
         <v>0</v>
       </c>
       <c r="L7">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>100</v>
+      <c r="G8" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="H8" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>96</v>
+      <c r="F9" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="H9" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -2737,18 +2738,26 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="6"/>
+      <c r="F10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -2761,55 +2770,55 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="36">
-        <v>4</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="H11" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="36">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
@@ -2825,21 +2834,20 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" s="6" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>124</v>
-      </c>
+      <c r="M12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+        <v>86</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="H13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -2848,27 +2856,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+      <c r="M13" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="33">
+        <v>4</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="H14" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -2877,28 +2890,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="6">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+        <v>25</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="36">
+        <v>91</v>
+      </c>
+      <c r="F15" s="33">
         <v>3</v>
       </c>
-      <c r="G15" s="36"/>
       <c r="H15" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -2907,26 +2924,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="M15" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="6" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+        <v>84</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I16" s="6">
         <v>0</v>
@@ -2939,23 +2955,25 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="M16" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>102</v>
+      <c r="F17" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H17" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
@@ -2968,25 +2986,31 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="18">
-        <v>25</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="M17" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="33">
+        <v>3</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2994,21 +3018,24 @@
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="G19" s="36" t="s">
-        <v>104</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
@@ -3017,278 +3044,287 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="6">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="18">
+        <v>25</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="G22" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6">
+        <v>20</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="L22">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="M22" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H23" s="6">
         <v>5</v>
       </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20">
+      <c r="K23" s="6"/>
+      <c r="L23">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="18" t="s">
+      <c r="M23" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="18">
+      <c r="E24" s="18"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="18">
         <v>10</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I24" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J24" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21">
+      <c r="K24" s="6"/>
+      <c r="L24">
         <f>Tabelle210[[#This Row],[Wunsch]]*Tabelle210[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="1" t="s">
+      <c r="M24" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="2">
-        <f>SUM(J4:J21)</f>
+      <c r="J25" s="2">
+        <f>SUM(J7:J24)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="32">
+      <c r="K25" s="6"/>
+      <c r="L25" s="29">
         <f>SUM(Tabelle210[Zusatzkosten])</f>
         <v>45</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G28" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="M28" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="G26" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" ref="J26:J43" si="1">I26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="G27" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="6">
-        <v>5</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="6">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="36" t="s">
-        <v>93</v>
-      </c>
       <c r="G29" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I29" s="6">
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
+        <f t="shared" ref="J29:J46" si="1">I29*H29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>100</v>
+      <c r="G30" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="H30" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30" s="6">
         <v>0</v>
@@ -3297,31 +3333,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
       <c r="L30">
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>96</v>
+      <c r="F31" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="H31" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31" s="6">
         <v>0</v>
@@ -3334,18 +3369,26 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
+      <c r="M31" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C32" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="6"/>
+      <c r="F32" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="H32" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I32" s="6">
         <v>0</v>
@@ -3358,26 +3401,26 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="M32" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="36">
-        <v>4</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="H33" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I33" s="6">
         <v>0</v>
@@ -3386,24 +3429,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="L33">
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="36">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="H34" s="6">
         <v>10</v>
@@ -3419,20 +3468,20 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
-        <v>124</v>
-      </c>
+      <c r="M34" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E35" s="6"/>
       <c r="H35" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -3445,24 +3494,28 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="M35" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="33">
+        <v>4</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="H36" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I36" s="6">
         <v>0</v>
@@ -3475,23 +3528,25 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
+      <c r="M36" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="36">
+        <v>91</v>
+      </c>
+      <c r="F37" s="33">
         <v>3</v>
       </c>
       <c r="H37" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I37" s="6">
         <v>0</v>
@@ -3504,20 +3559,20 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
+      <c r="M37" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>105</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="H38" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I38" s="6">
         <v>0</v>
@@ -3530,24 +3585,26 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
+      <c r="M38" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>102</v>
+      <c r="F39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H39" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I39" s="6">
         <v>0</v>
@@ -3560,25 +3617,30 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="18">
-        <v>25</v>
-      </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
+      <c r="M39" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="33">
+        <v>3</v>
+      </c>
+      <c r="H40" s="6">
+        <v>5</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3586,21 +3648,22 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
+      <c r="M40" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="G41" s="36" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="H41" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6">
         <v>0</v>
@@ -3613,22 +3676,26 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
+      <c r="M41" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="H42" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I42" s="6">
         <v>0</v>
@@ -3641,20 +3708,22 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+      <c r="M42" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="18" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E43" s="18"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
       <c r="H43" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I43" s="18">
         <v>0</v>
@@ -3667,410 +3736,433 @@
         <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="M43" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="1" t="s">
+      <c r="G44" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="6">
+        <v>20</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="6">
+        <v>5</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="18">
+        <v>10</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>Tabelle21011[[#This Row],[Wunsch]]*Tabelle21011[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="2">
-        <f>SUM(J26:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="32">
+      <c r="J47" s="2">
+        <f>SUM(J29:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
         <f>SUM(Tabelle21011[Zusatzkosten])</f>
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="20" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+      <c r="C50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E50" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F50" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G50" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L47" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
+      <c r="M50" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="G48" s="39" t="s">
+      <c r="E51" s="6"/>
+      <c r="G51" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H51" s="6">
         <v>2</v>
       </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" ref="J48:J65" si="2">I48*H48</f>
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" ref="J51:J68" si="2">I51*H51</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="M51" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="G49" s="36" t="s">
+      <c r="E52" s="6"/>
+      <c r="G52" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H52" s="6">
         <v>5</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I52" s="6">
         <v>1</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J52" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L49">
+      <c r="L52">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="M52" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="36" t="s">
+      <c r="E53" s="6"/>
+      <c r="F53" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="6">
+      <c r="G53" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="6">
         <v>15</v>
       </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="L53">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="M53" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="36" t="s">
+      <c r="E54" s="6"/>
+      <c r="F54" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G54" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H54" s="6">
         <v>10</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I54" s="6">
         <v>1</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J54" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L51">
+      <c r="L54">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
+      <c r="M54" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="36" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="36" t="s">
+      <c r="G55" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H55" s="6">
         <v>10</v>
       </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="L55">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="M55" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="36" t="s">
+      <c r="E56" s="6"/>
+      <c r="F56" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G53" s="36" t="s">
+      <c r="G56" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H56" s="6">
         <v>10</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I56" s="6">
         <v>1</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J56" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L53">
+      <c r="L56">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
+      <c r="M56" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="H54" s="6">
+      <c r="E57" s="6"/>
+      <c r="H57" s="6">
         <v>3</v>
       </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L54">
+      <c r="L57">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
+      <c r="M57" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F58" s="33">
         <v>4</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H58" s="6">
         <v>25</v>
       </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55">
+      <c r="K58">
         <v>3</v>
       </c>
-      <c r="L55">
+      <c r="L58">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6" t="s">
+      <c r="M58" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C59" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="36">
-        <v>3</v>
-      </c>
-      <c r="H56" s="6">
-        <v>10</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="H57" s="6">
-        <v>5</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" s="6">
-        <v>5</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="36">
+        <v>91</v>
+      </c>
+      <c r="F59" s="33">
         <v>3</v>
       </c>
       <c r="H59" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I59" s="6">
         <v>0</v>
@@ -4083,20 +4175,20 @@
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
+      <c r="M59" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C60" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>105</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E60" s="6"/>
       <c r="H60" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I60" s="6">
         <v>0</v>
@@ -4109,24 +4201,26 @@
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
+      <c r="M60" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C61" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>102</v>
+      <c r="F61" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H61" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I61" s="6">
         <v>0</v>
@@ -4139,25 +4233,30 @@
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="18">
-        <v>25</v>
-      </c>
-      <c r="I62" s="18">
-        <v>0</v>
-      </c>
-      <c r="J62" s="18">
+      <c r="M61" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="33">
+        <v>3</v>
+      </c>
+      <c r="H62" s="6">
+        <v>5</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4165,21 +4264,22 @@
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
+      <c r="M62" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C63" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="G63" s="36" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="H63" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I63" s="6">
         <v>0</v>
@@ -4188,55 +4288,58 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
       <c r="L63">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="H64" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
+      <c r="M64" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="18" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E65" s="18"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I65" s="18">
         <v>0</v>
@@ -4245,202 +4348,209 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
       <c r="L65">
         <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="G66" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="6">
+        <v>20</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>60</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="6">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C68" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="18">
+        <v>10</v>
+      </c>
+      <c r="I68" s="18">
+        <v>0</v>
+      </c>
+      <c r="J68" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <f>Tabelle21012[[#This Row],[Wunsch]]*Tabelle21012[[#This Row],[gold/stück]]</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="1" t="s">
+      <c r="M68" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J66" s="2">
-        <f>SUM(J48:J65)</f>
+      <c r="J69" s="2">
+        <f>SUM(J51:J68)</f>
         <v>30</v>
       </c>
-      <c r="L66" s="32">
+      <c r="L69" s="29">
         <f>SUM(Tabelle21012[Zusatzkosten])</f>
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="20" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" s="6"/>
+      <c r="C72" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E72" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F72" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G72" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H69" s="12" t="s">
+      <c r="H72" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="I72" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K72" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L69" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6" t="s">
+      <c r="M72" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C73" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="G70" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H70" s="6">
-        <v>2</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <f t="shared" ref="J70:J87" si="3">I70*H70</f>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="G71" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="H71" s="6">
-        <v>5</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="6">
-        <v>15</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="36" t="s">
-        <v>93</v>
-      </c>
       <c r="G73" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I73" s="6">
         <v>0</v>
       </c>
       <c r="J73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J73:J90" si="3">I73*H73</f>
         <v>0</v>
       </c>
       <c r="L73">
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
+      <c r="M73" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="36" t="s">
-        <v>100</v>
+      <c r="G74" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="H74" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I74" s="6">
         <v>0</v>
@@ -4453,24 +4563,26 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
+      <c r="M74" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="36" t="s">
-        <v>96</v>
+      <c r="F75" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="H75" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I75" s="6">
         <v>0</v>
@@ -4483,18 +4595,26 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
+      <c r="M75" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E76" s="6"/>
+      <c r="F76" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I76" s="6">
         <v>0</v>
@@ -4507,26 +4627,26 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
+      <c r="M76" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="36">
-        <v>4</v>
-      </c>
-      <c r="G77" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="H77" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I77" s="6">
         <v>0</v>
@@ -4539,20 +4659,23 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
+      <c r="M77" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C78" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="36">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="H78" s="6">
         <v>10</v>
@@ -4568,20 +4691,20 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="30" t="s">
-        <v>124</v>
-      </c>
+      <c r="M78" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C79" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E79" s="6"/>
       <c r="H79" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I79" s="6">
         <v>0</v>
@@ -4594,53 +4717,59 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
+      <c r="M79" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="33">
+        <v>4</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="H80" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I80" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L80">
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
+      <c r="M80" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C81" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="36">
+        <v>91</v>
+      </c>
+      <c r="F81" s="33">
         <v>3</v>
       </c>
       <c r="H81" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I81" s="6">
         <v>0</v>
@@ -4653,20 +4782,20 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
+      <c r="M81" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>105</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E82" s="6"/>
       <c r="H82" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I82" s="6">
         <v>0</v>
@@ -4679,55 +4808,62 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
+      <c r="M82" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C83" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>102</v>
+      <c r="F83" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H83" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I83" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L83">
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="18">
-        <v>25</v>
-      </c>
-      <c r="I84" s="18">
-        <v>0</v>
-      </c>
-      <c r="J84" s="18">
+      <c r="M83" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="33">
+        <v>3</v>
+      </c>
+      <c r="H84" s="6">
+        <v>5</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4735,21 +4871,22 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
+      <c r="M84" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C85" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="G85" s="36" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="H85" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I85" s="6">
         <v>0</v>
@@ -4762,22 +4899,26 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
+      <c r="M85" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="H86" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I86" s="6">
         <v>0</v>
@@ -4786,27 +4927,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K86">
-        <v>3</v>
-      </c>
       <c r="L86">
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C87" s="18" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E87" s="18"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
       <c r="H87" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I87" s="18">
         <v>0</v>
@@ -4819,212 +4959,227 @@
         <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="M87" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="1" t="s">
+      <c r="G88" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="6">
+        <v>20</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="6">
+        <v>5</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>15</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C90" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="18">
+        <v>10</v>
+      </c>
+      <c r="I90" s="18">
+        <v>0</v>
+      </c>
+      <c r="J90" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f>Tabelle2101213[[#This Row],[Wunsch]]*Tabelle2101213[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J88" s="2">
-        <f>SUM(J70:J87)</f>
+      <c r="J91" s="2">
+        <f>SUM(J73:J90)</f>
         <v>15</v>
       </c>
-      <c r="L88" s="32">
+      <c r="L91" s="29">
         <f>SUM(Tabelle2101213[Zusatzkosten])</f>
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="12" t="s">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C94" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D91" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="L94" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="L91" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C92" s="6" t="s">
+      <c r="M94" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C95" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="G92" s="39" t="s">
+      <c r="E95" s="6"/>
+      <c r="G95" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H95" s="6">
         <v>2</v>
       </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <f t="shared" ref="J92:J109" si="4">I92*H92</f>
-        <v>0</v>
-      </c>
-      <c r="L92">
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" ref="J95:J112" si="4">I95*H95</f>
+        <v>0</v>
+      </c>
+      <c r="L95">
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C93" s="6" t="s">
+      <c r="M95" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C96" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E93" s="6"/>
-      <c r="G93" s="36" t="s">
+      <c r="E96" s="6"/>
+      <c r="G96" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H96" s="6">
         <v>5</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I96" s="6">
         <v>5</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J96" s="6">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="L93">
-        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G94" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H94" s="6">
-        <v>15</v>
-      </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H95" s="6">
-        <v>10</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C96" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H96" s="6">
-        <v>10</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="L96">
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G97" s="36" t="s">
-        <v>96</v>
+      <c r="F97" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="H97" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I97" s="6">
         <v>0</v>
@@ -5037,17 +5192,26 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E98" s="6"/>
+      <c r="F98" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="H98" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
@@ -5060,25 +5224,26 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F99" s="36">
-        <v>4</v>
-      </c>
-      <c r="G99" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="H99" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
@@ -5091,19 +5256,23 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="36">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="H100" s="6">
         <v>10</v>
@@ -5115,24 +5284,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K100">
-        <v>5</v>
-      </c>
       <c r="L100">
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E101" s="6"/>
       <c r="H101" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I101" s="6">
         <v>0</v>
@@ -5145,23 +5314,28 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="6"/>
-      <c r="F102" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G102" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F102" s="33">
+        <v>4</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="H102" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I102" s="6">
         <v>0</v>
@@ -5174,22 +5348,25 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C103" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F103" s="36">
+        <v>91</v>
+      </c>
+      <c r="F103" s="33">
         <v>3</v>
       </c>
       <c r="H103" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I103" s="6">
         <v>0</v>
@@ -5198,23 +5375,27 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
       <c r="L103">
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C104" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>105</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E104" s="6"/>
       <c r="H104" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I104" s="6">
         <v>0</v>
@@ -5227,23 +5408,26 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C105" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E105" s="6"/>
-      <c r="F105" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>102</v>
+      <c r="F105" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H105" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I105" s="6">
         <v>0</v>
@@ -5256,24 +5440,30 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C106" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="18">
-        <v>25</v>
-      </c>
-      <c r="I106" s="18">
-        <v>0</v>
-      </c>
-      <c r="J106" s="18">
+      <c r="M105" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="33">
+        <v>3</v>
+      </c>
+      <c r="H106" s="6">
+        <v>5</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5281,20 +5471,22 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C107" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="G107" s="36" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="H107" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I107" s="6">
         <v>0</v>
@@ -5307,21 +5499,26 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="18"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="H108" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I108" s="6">
         <v>0</v>
@@ -5334,19 +5531,22 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C109" s="18" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E109" s="18"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
       <c r="H109" s="18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I109" s="18">
         <v>0</v>
@@ -5359,32 +5559,116 @@
         <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="M109" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="1" t="s">
+      <c r="G110" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H110" s="6">
+        <v>20</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111" s="18"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H111" s="6">
+        <v>5</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C112" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="18">
+        <v>10</v>
+      </c>
+      <c r="I112" s="18">
+        <v>0</v>
+      </c>
+      <c r="J112" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <f>Tabelle21012132[[#This Row],[Wunsch]]*Tabelle21012132[[#This Row],[gold/stück]]</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J110" s="2">
-        <f>SUM(J92:J109)</f>
+      <c r="J113" s="2">
+        <f>SUM(J95:J112)</f>
         <v>25</v>
       </c>
-      <c r="L110" s="32">
+      <c r="L113" s="29">
         <f>SUM(Tabelle21012132[Zusatzkosten])</f>
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B79:B84"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H4:H12 H19:H21">
+  <conditionalFormatting sqref="H7:H15 H22:H24">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5396,7 +5680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J12 J19:J21">
+  <conditionalFormatting sqref="J7:J15 J22:J24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5408,7 +5692,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H18">
+  <conditionalFormatting sqref="H16:H21">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5420,7 +5704,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J18">
+  <conditionalFormatting sqref="J16:J21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5432,7 +5716,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H34 H41:H43">
+  <conditionalFormatting sqref="H29:H37 H44:H46">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5444,7 +5728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J34 J41:J43">
+  <conditionalFormatting sqref="J29:J37 J44:J46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5456,7 +5740,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H40">
+  <conditionalFormatting sqref="H38:H43">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5468,7 +5752,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J40">
+  <conditionalFormatting sqref="J38:J43">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5480,7 +5764,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H56 H63:H65">
+  <conditionalFormatting sqref="H51:H59 H66:H68">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5492,7 +5776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56 J63:J65">
+  <conditionalFormatting sqref="J51:J59 J66:J68">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5504,7 +5788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H62">
+  <conditionalFormatting sqref="H60:H65">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5516,7 +5800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J62">
+  <conditionalFormatting sqref="J60:J65">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5528,7 +5812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70:H78 H85:H87">
+  <conditionalFormatting sqref="H73:H81 H88:H90">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5540,7 +5824,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J78 J85:J87">
+  <conditionalFormatting sqref="J73:J81 J88:J90">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5552,7 +5836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H84">
+  <conditionalFormatting sqref="H82:H87">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5564,7 +5848,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J84">
+  <conditionalFormatting sqref="J82:J87">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5576,7 +5860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J21">
+  <conditionalFormatting sqref="J7:J24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5588,7 +5872,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J43">
+  <conditionalFormatting sqref="J29:J46">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5600,7 +5884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J65">
+  <conditionalFormatting sqref="J51:J68">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5612,7 +5896,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J87">
+  <conditionalFormatting sqref="J73:J90">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5624,7 +5908,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H92:H100 H107:H109">
+  <conditionalFormatting sqref="H95:H103 H110:H112">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5636,7 +5920,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J100 J107:J109">
+  <conditionalFormatting sqref="J95:J103 J110:J112">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5648,7 +5932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H101:H106">
+  <conditionalFormatting sqref="H104:H109">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5660,7 +5944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J101:J106">
+  <conditionalFormatting sqref="J104:J109">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5672,7 +5956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J109">
+  <conditionalFormatting sqref="J95:J112">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5704,40 +5988,40 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="12" t="s">
         <v>48</v>
@@ -5760,12 +6044,12 @@
       <c r="I4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
@@ -5797,7 +6081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
@@ -5830,7 +6114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
@@ -5863,7 +6147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -5896,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
@@ -5929,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>44</v>
       </c>
@@ -5962,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>45</v>
       </c>
@@ -5995,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>46</v>
       </c>
@@ -6027,7 +6311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>47</v>
       </c>
@@ -6059,7 +6343,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6069,7 +6353,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>53</v>
       </c>
@@ -6102,7 +6386,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>54</v>
       </c>
@@ -6135,7 +6419,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>55</v>
       </c>
@@ -6168,7 +6452,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -6201,7 +6485,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>57</v>
       </c>
@@ -6234,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>58</v>
       </c>
@@ -6267,7 +6551,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>59</v>
       </c>
@@ -6300,7 +6584,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>60</v>
       </c>
@@ -6333,7 +6617,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -6345,7 +6629,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
@@ -6434,17 +6718,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
@@ -6464,10 +6748,10 @@
         <v>122</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>119</v>
       </c>
@@ -6493,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>118</v>
       </c>
@@ -6519,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>117</v>
       </c>
@@ -6545,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>116</v>
       </c>
@@ -6571,7 +6855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>115</v>
       </c>
@@ -6597,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>114</v>
       </c>
@@ -6623,7 +6907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>113</v>
       </c>
@@ -6649,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>112</v>
       </c>
@@ -6675,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>111</v>
       </c>
@@ -6701,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
@@ -6727,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>109</v>
       </c>
@@ -6753,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>108</v>
       </c>
@@ -6779,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>82</v>
       </c>
@@ -6805,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>120</v>
       </c>
@@ -6831,7 +7115,7 @@
         <v>59.999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
